--- a/test-data/용역비지급명부_20251015.xlsx
+++ b/test-data/용역비지급명부_20251015.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81E8A0-2987-45F9-ADB0-5671B5B87A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE23C792-20E4-4728-9DA3-3AD2CE4F0041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="3120" windowWidth="25290" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역비 지급명부" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="130">
   <si>
     <t>용역비 지급명부</t>
   </si>
@@ -263,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매출</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>배율</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -301,13 +287,420 @@
   <si>
     <t>정(1) - 등</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 총액</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>주별총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급대상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <r>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급별 지급통계 - 주간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급별 지급통계 - 월간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주</t>
+  </si>
+  <si>
+    <t>매출통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록수 : 7명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액 : 7000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1주</t>
+  </si>
+  <si>
+    <t>2주</t>
+  </si>
+  <si>
+    <t>3주</t>
+  </si>
+  <si>
+    <t>5주</t>
+  </si>
+  <si>
+    <t>0(2명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(4명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(1명)</t>
+  </si>
+  <si>
+    <t>각 셀의  표시: 금액(인원수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(3명)</t>
+  </si>
+  <si>
+    <t>0(6명)</t>
+  </si>
+  <si>
+    <t>0(7명)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,8 +760,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,8 +879,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBEAFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F4F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -475,11 +963,332 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -520,7 +1329,6 @@
     <xf numFmtId="3" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -532,6 +1340,123 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17:W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -939,57 +1864,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="J2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>80</v>
-      </c>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -998,35 +1897,6 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="K3" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="L3" s="18">
-        <f>$K$3*K3</f>
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="M3" s="17">
-        <v>4</v>
-      </c>
-      <c r="N3" s="17">
-        <f>M3+M4</f>
-        <v>6</v>
-      </c>
-      <c r="O3" s="17">
-        <f>L3/N3</f>
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="P3" s="17">
-        <f>O3</f>
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="Q3" s="17">
-        <f>P3/10</f>
-        <v>9.5999999999999992E-4</v>
-      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1035,33 +1905,6 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17">
-        <v>0.19</v>
-      </c>
-      <c r="L4" s="18">
-        <f t="shared" ref="L4:L6" si="0">$K$3*K4</f>
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="M4" s="17">
-        <v>2</v>
-      </c>
-      <c r="N4" s="17">
-        <f>M4+M5</f>
-        <v>3</v>
-      </c>
-      <c r="O4" s="17">
-        <f t="shared" ref="O4:O6" si="1">L4/N4</f>
-        <v>1.52E-2</v>
-      </c>
-      <c r="P4" s="17">
-        <f>P3+O4</f>
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="Q4" s="17">
-        <f t="shared" ref="Q4:Q6" si="2">P4/10</f>
-        <v>2.48E-3</v>
-      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1088,33 +1931,6 @@
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L5" s="18">
-        <f t="shared" si="0"/>
-        <v>3.3600000000000005E-2</v>
-      </c>
-      <c r="M5" s="17">
-        <v>1</v>
-      </c>
-      <c r="N5" s="17">
-        <f>M5+M6</f>
-        <v>1</v>
-      </c>
-      <c r="O5" s="17">
-        <f t="shared" si="1"/>
-        <v>3.3600000000000005E-2</v>
-      </c>
-      <c r="P5" s="17">
-        <f t="shared" ref="P5:P6" si="3">P4+O5</f>
-        <v>5.8400000000000007E-2</v>
-      </c>
-      <c r="Q5" s="17">
-        <f t="shared" si="2"/>
-        <v>5.8400000000000006E-3</v>
-      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1123,46 +1939,21 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="L6" s="18">
-        <f t="shared" si="0"/>
-        <v>2.1599999999999998E-2</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17">
-        <f>M6+P7</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1221,11 +2012,11 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
@@ -2178,7 +2969,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" s="9">
         <v>12000</v>
@@ -2373,7 +3164,7 @@
     </row>
     <row r="37" spans="5:23" x14ac:dyDescent="0.25">
       <c r="N37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O37" s="15">
         <v>4000</v>
@@ -2405,7 +3196,7 @@
     </row>
     <row r="38" spans="5:23" x14ac:dyDescent="0.25">
       <c r="N38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O38" s="9">
         <v>4000</v>
@@ -2435,83 +3226,143 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="39" spans="5:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="5:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="U40" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="V40" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="W40" s="53" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="41" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="38">
         <v>81000</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="25">
         <v>81000</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="25">
         <v>81000</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="25">
         <v>81000</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="39">
         <v>81000</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="45">
         <f>K21+K25</f>
         <v>121500</v>
       </c>
-      <c r="L41" s="16">
-        <f t="shared" ref="L41:N41" si="4">L21+L25</f>
+      <c r="L41" s="26">
+        <f t="shared" ref="L41:N41" si="0">L21+L25</f>
         <v>121500</v>
       </c>
-      <c r="M41" s="16">
-        <f t="shared" si="4"/>
+      <c r="M41" s="26">
+        <f t="shared" si="0"/>
         <v>121500</v>
       </c>
-      <c r="N41" s="16">
-        <f t="shared" si="4"/>
+      <c r="N41" s="27">
+        <f t="shared" si="0"/>
         <v>121500</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O41" s="45">
         <f>O21+O25+O32</f>
         <v>105300</v>
       </c>
-      <c r="P41" s="16">
-        <f t="shared" ref="P41:W41" si="5">P21+P25+P32</f>
+      <c r="P41" s="26">
+        <f t="shared" ref="P41:W41" si="1">P21+P25+P32</f>
         <v>24300</v>
       </c>
-      <c r="Q41" s="16">
-        <f t="shared" si="5"/>
+      <c r="Q41" s="26">
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="R41" s="16">
-        <f t="shared" si="5"/>
+      <c r="R41" s="26">
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="S41" s="16">
-        <f t="shared" si="5"/>
+      <c r="S41" s="27">
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="T41" s="16">
-        <f t="shared" si="5"/>
+      <c r="T41" s="26">
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="U41" s="16">
-        <f t="shared" si="5"/>
+      <c r="U41" s="26">
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="V41" s="16">
-        <f t="shared" si="5"/>
+      <c r="V41" s="26">
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="W41" s="16">
-        <f t="shared" si="5"/>
+      <c r="W41" s="27">
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
     </row>
     <row r="42" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="40">
         <v>24000</v>
       </c>
       <c r="G42" s="9">
@@ -2523,67 +3374,67 @@
       <c r="I42" s="9">
         <v>24000</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="41">
         <v>24000</v>
       </c>
-      <c r="K42" s="16">
-        <f t="shared" ref="K42:N42" si="6">K22+K26</f>
+      <c r="K42" s="46">
+        <f t="shared" ref="K42:N42" si="2">K22+K26</f>
         <v>64500</v>
       </c>
-      <c r="L42" s="16">
-        <f t="shared" si="6"/>
+      <c r="L42" s="29">
+        <f t="shared" si="2"/>
         <v>64500</v>
       </c>
-      <c r="M42" s="16">
-        <f t="shared" si="6"/>
+      <c r="M42" s="29">
+        <f t="shared" si="2"/>
         <v>64500</v>
       </c>
-      <c r="N42" s="16">
-        <f t="shared" si="6"/>
+      <c r="N42" s="30">
+        <f t="shared" si="2"/>
         <v>64500</v>
       </c>
-      <c r="O42" s="16">
-        <f t="shared" ref="O42:W42" si="7">O22+O26+O33</f>
+      <c r="O42" s="46">
+        <f t="shared" ref="O42:W42" si="3">O22+O26+O33</f>
         <v>74800</v>
       </c>
-      <c r="P42" s="16">
-        <f t="shared" si="7"/>
+      <c r="P42" s="29">
+        <f t="shared" si="3"/>
         <v>50800</v>
       </c>
-      <c r="Q42" s="16">
-        <f t="shared" si="7"/>
+      <c r="Q42" s="29">
+        <f t="shared" si="3"/>
         <v>50800</v>
       </c>
-      <c r="R42" s="16">
-        <f t="shared" si="7"/>
+      <c r="R42" s="29">
+        <f t="shared" si="3"/>
         <v>50800</v>
       </c>
-      <c r="S42" s="16">
-        <f t="shared" si="7"/>
+      <c r="S42" s="30">
+        <f t="shared" si="3"/>
         <v>50800</v>
       </c>
-      <c r="T42" s="16">
-        <f t="shared" si="7"/>
+      <c r="T42" s="29">
+        <f t="shared" si="3"/>
         <v>50800</v>
       </c>
-      <c r="U42" s="16">
-        <f t="shared" si="7"/>
+      <c r="U42" s="29">
+        <f t="shared" si="3"/>
         <v>10300</v>
       </c>
-      <c r="V42" s="16">
-        <f t="shared" si="7"/>
+      <c r="V42" s="29">
+        <f t="shared" si="3"/>
         <v>10300</v>
       </c>
-      <c r="W42" s="16">
-        <f t="shared" si="7"/>
+      <c r="W42" s="30">
+        <f t="shared" si="3"/>
         <v>10300</v>
       </c>
     </row>
     <row r="43" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="40">
         <v>24000</v>
       </c>
       <c r="G43" s="9">
@@ -2595,82 +3446,82 @@
       <c r="I43" s="9">
         <v>24000</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="41">
         <v>24000</v>
       </c>
-      <c r="K43" s="16">
-        <f t="shared" ref="K43:N43" si="8">K23+K27</f>
+      <c r="K43" s="46">
+        <f t="shared" ref="K43:N43" si="4">K23+K27</f>
         <v>36000</v>
       </c>
-      <c r="L43" s="16">
-        <f t="shared" si="8"/>
+      <c r="L43" s="29">
+        <f t="shared" si="4"/>
         <v>36000</v>
       </c>
-      <c r="M43" s="16">
-        <f t="shared" si="8"/>
+      <c r="M43" s="29">
+        <f t="shared" si="4"/>
         <v>36000</v>
       </c>
-      <c r="N43" s="16">
-        <f t="shared" si="8"/>
+      <c r="N43" s="30">
+        <f t="shared" si="4"/>
         <v>36000</v>
       </c>
-      <c r="O43" s="16">
-        <f t="shared" ref="O43:W43" si="9">O23+O27+O34</f>
+      <c r="O43" s="46">
+        <f t="shared" ref="O43:W43" si="5">O23+O27+O34</f>
         <v>34300</v>
       </c>
-      <c r="P43" s="16">
-        <f t="shared" si="9"/>
+      <c r="P43" s="29">
+        <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="Q43" s="16">
-        <f t="shared" si="9"/>
+      <c r="Q43" s="29">
+        <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="R43" s="16">
-        <f t="shared" si="9"/>
+      <c r="R43" s="29">
+        <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="S43" s="16">
-        <f t="shared" si="9"/>
+      <c r="S43" s="30">
+        <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="T43" s="16">
-        <f t="shared" si="9"/>
+      <c r="T43" s="29">
+        <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="U43" s="16">
-        <f t="shared" si="9"/>
+      <c r="U43" s="29">
+        <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="V43" s="16">
-        <f t="shared" si="9"/>
+      <c r="V43" s="29">
+        <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="W43" s="16">
-        <f t="shared" si="9"/>
+      <c r="W43" s="30">
+        <f t="shared" si="5"/>
         <v>10300</v>
       </c>
     </row>
     <row r="44" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="9">
+      <c r="F44" s="28">
+        <v>0</v>
+      </c>
+      <c r="G44" s="31">
+        <v>0</v>
+      </c>
+      <c r="H44" s="31">
+        <v>0</v>
+      </c>
+      <c r="I44" s="31">
+        <v>0</v>
+      </c>
+      <c r="J44" s="42">
+        <v>0</v>
+      </c>
+      <c r="K44" s="40">
         <v>12000</v>
       </c>
       <c r="L44" s="9">
@@ -2679,66 +3530,66 @@
       <c r="M44" s="9">
         <v>12000</v>
       </c>
-      <c r="N44" s="9">
-        <v>12000</v>
-      </c>
-      <c r="O44" s="16">
-        <f t="shared" ref="O44:W44" si="10">O24+O28+O35</f>
+      <c r="N44" s="41">
+        <v>12000</v>
+      </c>
+      <c r="O44" s="46">
+        <f t="shared" ref="O44:W44" si="6">O24+O28+O35</f>
         <v>16000</v>
       </c>
-      <c r="P44" s="16">
-        <f t="shared" si="10"/>
+      <c r="P44" s="29">
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="Q44" s="16">
-        <f t="shared" si="10"/>
+      <c r="Q44" s="29">
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="R44" s="16">
-        <f t="shared" si="10"/>
+      <c r="R44" s="29">
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="S44" s="16">
-        <f t="shared" si="10"/>
+      <c r="S44" s="30">
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="T44" s="16">
-        <f t="shared" si="10"/>
+      <c r="T44" s="29">
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="U44" s="16">
-        <f t="shared" si="10"/>
-        <v>4000</v>
-      </c>
-      <c r="V44" s="16">
-        <f t="shared" si="10"/>
-        <v>4000</v>
-      </c>
-      <c r="W44" s="16">
-        <f t="shared" si="10"/>
+      <c r="U44" s="29">
+        <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+      <c r="V44" s="29">
+        <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+      <c r="W44" s="30">
+        <f t="shared" si="6"/>
         <v>4000</v>
       </c>
     </row>
     <row r="45" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="9">
+      <c r="F45" s="28">
+        <v>0</v>
+      </c>
+      <c r="G45" s="31">
+        <v>0</v>
+      </c>
+      <c r="H45" s="31">
+        <v>0</v>
+      </c>
+      <c r="I45" s="31">
+        <v>0</v>
+      </c>
+      <c r="J45" s="42">
+        <v>0</v>
+      </c>
+      <c r="K45" s="40">
         <v>12000</v>
       </c>
       <c r="L45" s="9">
@@ -2747,66 +3598,66 @@
       <c r="M45" s="9">
         <v>12000</v>
       </c>
-      <c r="N45" s="9">
-        <v>12000</v>
-      </c>
-      <c r="O45" s="16">
-        <f t="shared" ref="O45:W45" si="11">O25+O29+O36</f>
+      <c r="N45" s="41">
+        <v>12000</v>
+      </c>
+      <c r="O45" s="46">
+        <f t="shared" ref="O45:W45" si="7">O25+O29+O36</f>
         <v>16000</v>
       </c>
-      <c r="P45" s="16">
-        <f t="shared" si="11"/>
+      <c r="P45" s="29">
+        <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="Q45" s="16">
-        <f t="shared" si="11"/>
+      <c r="Q45" s="29">
+        <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="R45" s="16">
-        <f t="shared" si="11"/>
+      <c r="R45" s="29">
+        <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="S45" s="16">
-        <f t="shared" si="11"/>
+      <c r="S45" s="30">
+        <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="T45" s="16">
-        <f t="shared" si="11"/>
+      <c r="T45" s="29">
+        <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="U45" s="16">
-        <f t="shared" si="11"/>
-        <v>4000</v>
-      </c>
-      <c r="V45" s="16">
-        <f t="shared" si="11"/>
-        <v>4000</v>
-      </c>
-      <c r="W45" s="16">
-        <f t="shared" si="11"/>
+      <c r="U45" s="29">
+        <f t="shared" si="7"/>
+        <v>4000</v>
+      </c>
+      <c r="V45" s="29">
+        <f t="shared" si="7"/>
+        <v>4000</v>
+      </c>
+      <c r="W45" s="30">
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
     </row>
     <row r="46" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="9">
+      <c r="E46" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="28">
+        <v>0</v>
+      </c>
+      <c r="G46" s="31">
+        <v>0</v>
+      </c>
+      <c r="H46" s="31">
+        <v>0</v>
+      </c>
+      <c r="I46" s="31">
+        <v>0</v>
+      </c>
+      <c r="J46" s="42">
+        <v>0</v>
+      </c>
+      <c r="K46" s="40">
         <v>12000</v>
       </c>
       <c r="L46" s="9">
@@ -2815,181 +3666,679 @@
       <c r="M46" s="9">
         <v>12000</v>
       </c>
-      <c r="N46" s="9">
-        <v>12000</v>
-      </c>
-      <c r="O46" s="16">
+      <c r="N46" s="41">
+        <v>12000</v>
+      </c>
+      <c r="O46" s="46">
         <f>O30+O37</f>
         <v>16000</v>
       </c>
-      <c r="P46" s="16">
-        <f t="shared" ref="P46:W46" si="12">P30+P37</f>
+      <c r="P46" s="29">
+        <f t="shared" ref="P46:W46" si="8">P30+P37</f>
         <v>16000</v>
       </c>
-      <c r="Q46" s="16">
-        <f t="shared" si="12"/>
+      <c r="Q46" s="29">
+        <f t="shared" si="8"/>
         <v>16000</v>
       </c>
-      <c r="R46" s="16">
-        <f t="shared" si="12"/>
+      <c r="R46" s="29">
+        <f t="shared" si="8"/>
         <v>16000</v>
       </c>
-      <c r="S46" s="16">
-        <f t="shared" si="12"/>
+      <c r="S46" s="30">
+        <f t="shared" si="8"/>
         <v>16000</v>
       </c>
-      <c r="T46" s="16">
-        <f t="shared" si="12"/>
+      <c r="T46" s="29">
+        <f t="shared" si="8"/>
         <v>16000</v>
       </c>
-      <c r="U46" s="16">
-        <f t="shared" si="12"/>
-        <v>4000</v>
-      </c>
-      <c r="V46" s="16">
-        <f t="shared" si="12"/>
-        <v>4000</v>
-      </c>
-      <c r="W46" s="16">
-        <f t="shared" si="12"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="47" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
-      <c r="O47" s="9">
-        <v>4000</v>
-      </c>
-      <c r="P47" s="9">
-        <v>4000</v>
-      </c>
-      <c r="Q47" s="9">
-        <v>4000</v>
-      </c>
-      <c r="R47" s="9">
-        <v>4000</v>
-      </c>
-      <c r="S47" s="9">
-        <v>4000</v>
-      </c>
-      <c r="T47" s="9">
-        <v>4000</v>
-      </c>
-      <c r="U47" s="9">
-        <v>4000</v>
-      </c>
-      <c r="V47" s="9">
-        <v>4000</v>
-      </c>
-      <c r="W47" s="9">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="48" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="F48" s="16">
+      <c r="U46" s="29">
+        <f t="shared" si="8"/>
+        <v>4000</v>
+      </c>
+      <c r="V46" s="29">
+        <f t="shared" si="8"/>
+        <v>4000</v>
+      </c>
+      <c r="W46" s="30">
+        <f t="shared" si="8"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="47" spans="5:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="32">
+        <v>0</v>
+      </c>
+      <c r="G47" s="33">
+        <v>0</v>
+      </c>
+      <c r="H47" s="33">
+        <v>0</v>
+      </c>
+      <c r="I47" s="33">
+        <v>0</v>
+      </c>
+      <c r="J47" s="43">
+        <v>0</v>
+      </c>
+      <c r="K47" s="32">
+        <v>0</v>
+      </c>
+      <c r="L47" s="33">
+        <v>0</v>
+      </c>
+      <c r="M47" s="33">
+        <v>0</v>
+      </c>
+      <c r="N47" s="43">
+        <v>0</v>
+      </c>
+      <c r="O47" s="47">
+        <v>4000</v>
+      </c>
+      <c r="P47" s="34">
+        <v>4000</v>
+      </c>
+      <c r="Q47" s="34">
+        <v>4000</v>
+      </c>
+      <c r="R47" s="34">
+        <v>4000</v>
+      </c>
+      <c r="S47" s="35">
+        <v>4000</v>
+      </c>
+      <c r="T47" s="44">
+        <v>4000</v>
+      </c>
+      <c r="U47" s="34">
+        <v>4000</v>
+      </c>
+      <c r="V47" s="34">
+        <v>4000</v>
+      </c>
+      <c r="W47" s="35">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="48" spans="5:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="49">
         <f>SUM(F41:F47)</f>
         <v>129000</v>
       </c>
-      <c r="G48" s="16">
-        <f t="shared" ref="G48:W48" si="13">SUM(G41:G47)</f>
+      <c r="G48" s="50">
+        <f t="shared" ref="G48:W48" si="9">SUM(G41:G47)</f>
         <v>129000</v>
       </c>
-      <c r="H48" s="16">
-        <f t="shared" si="13"/>
+      <c r="H48" s="50">
+        <f t="shared" si="9"/>
         <v>129000</v>
       </c>
-      <c r="I48" s="16">
-        <f t="shared" si="13"/>
+      <c r="I48" s="50">
+        <f t="shared" si="9"/>
         <v>129000</v>
       </c>
-      <c r="J48" s="16">
-        <f t="shared" si="13"/>
+      <c r="J48" s="51">
+        <f t="shared" si="9"/>
         <v>129000</v>
       </c>
-      <c r="K48" s="16">
-        <f t="shared" si="13"/>
+      <c r="K48" s="49">
+        <f t="shared" si="9"/>
         <v>258000</v>
       </c>
-      <c r="L48" s="16">
-        <f t="shared" si="13"/>
+      <c r="L48" s="50">
+        <f t="shared" si="9"/>
         <v>258000</v>
       </c>
-      <c r="M48" s="16">
-        <f t="shared" si="13"/>
+      <c r="M48" s="50">
+        <f t="shared" si="9"/>
         <v>258000</v>
       </c>
-      <c r="N48" s="16">
-        <f t="shared" si="13"/>
+      <c r="N48" s="51">
+        <f t="shared" si="9"/>
         <v>258000</v>
       </c>
-      <c r="O48" s="16">
-        <f t="shared" si="13"/>
+      <c r="O48" s="49">
+        <f t="shared" si="9"/>
         <v>266400</v>
       </c>
-      <c r="P48" s="16">
-        <f t="shared" si="13"/>
+      <c r="P48" s="50">
+        <f t="shared" si="9"/>
         <v>137400</v>
       </c>
-      <c r="Q48" s="16">
-        <f t="shared" si="13"/>
+      <c r="Q48" s="50">
+        <f t="shared" si="9"/>
         <v>137400</v>
       </c>
-      <c r="R48" s="16">
-        <f t="shared" si="13"/>
+      <c r="R48" s="50">
+        <f t="shared" si="9"/>
         <v>137400</v>
       </c>
-      <c r="S48" s="16">
-        <f t="shared" si="13"/>
+      <c r="S48" s="51">
+        <f t="shared" si="9"/>
         <v>137400</v>
       </c>
-      <c r="T48" s="16">
-        <f t="shared" si="13"/>
+      <c r="T48" s="50">
+        <f t="shared" si="9"/>
         <v>137400</v>
       </c>
-      <c r="U48" s="16">
-        <f t="shared" si="13"/>
+      <c r="U48" s="50">
+        <f t="shared" si="9"/>
         <v>60900</v>
       </c>
-      <c r="V48" s="16">
-        <f t="shared" si="13"/>
+      <c r="V48" s="50">
+        <f t="shared" si="9"/>
         <v>60900</v>
       </c>
-      <c r="W48" s="16">
-        <f t="shared" si="13"/>
+      <c r="W48" s="51">
+        <f t="shared" si="9"/>
         <v>60900</v>
       </c>
     </row>
+    <row r="49" spans="5:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="51">
+        <f>SUM(F48:J48)</f>
+        <v>645000</v>
+      </c>
+      <c r="K49" s="36"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="51">
+        <f>SUM(K48:N48)</f>
+        <v>1032000</v>
+      </c>
+      <c r="O49" s="36"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="51">
+        <f>SUM(O48:S48)</f>
+        <v>816000</v>
+      </c>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="51">
+        <f>SUM(T48:W48)</f>
+        <v>320100</v>
+      </c>
+    </row>
+    <row r="52" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E52" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E53" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="17">
+        <v>3000000</v>
+      </c>
+      <c r="G53" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="H53" s="17">
+        <f>$F$53*G53</f>
+        <v>720000</v>
+      </c>
+      <c r="I53" s="16">
+        <v>2</v>
+      </c>
+      <c r="J53" s="16">
+        <f>I53+I54</f>
+        <v>3</v>
+      </c>
+      <c r="K53" s="20">
+        <f>H53/J53</f>
+        <v>240000</v>
+      </c>
+      <c r="L53" s="20">
+        <f>K53</f>
+        <v>240000</v>
+      </c>
+      <c r="M53" s="20">
+        <f>L53/10</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="54" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E54" s="21"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="H54" s="17">
+        <f t="shared" ref="H54:H56" si="10">$F$53*G54</f>
+        <v>570000</v>
+      </c>
+      <c r="I54" s="16">
+        <v>1</v>
+      </c>
+      <c r="J54" s="16">
+        <f>I54+I55</f>
+        <v>1</v>
+      </c>
+      <c r="K54" s="20">
+        <f>H54/J54</f>
+        <v>570000</v>
+      </c>
+      <c r="L54" s="20">
+        <f>L53+K54</f>
+        <v>810000</v>
+      </c>
+      <c r="M54" s="20">
+        <f>L54/10</f>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="55" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E55" s="21"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H55" s="17">
+        <f t="shared" si="10"/>
+        <v>420000.00000000006</v>
+      </c>
+      <c r="I55" s="16">
+        <v>0</v>
+      </c>
+      <c r="J55" s="16">
+        <f>I55+I56</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="20" t="e">
+        <f>H55/J55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L55" s="20" t="e">
+        <f>L54+K55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" s="20" t="e">
+        <f>L55/10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E56" s="21"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="H56" s="17">
+        <f t="shared" si="10"/>
+        <v>270000</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16">
+        <f>I56+I57</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="20" t="e">
+        <f>H56/J56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L56" s="20" t="e">
+        <f>L55+K56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="20" t="e">
+        <f>L56/10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E58" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L58" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M58" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E59" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="17">
+        <v>3000000</v>
+      </c>
+      <c r="G59" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="H59" s="17">
+        <f>$F$59*G59</f>
+        <v>720000</v>
+      </c>
+      <c r="I59" s="16">
+        <v>4</v>
+      </c>
+      <c r="J59" s="16">
+        <f>I59+I60</f>
+        <v>6</v>
+      </c>
+      <c r="K59" s="20">
+        <f>H59/J59</f>
+        <v>120000</v>
+      </c>
+      <c r="L59" s="20">
+        <f>K59</f>
+        <v>120000</v>
+      </c>
+      <c r="M59" s="20">
+        <f>L59/10</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="60" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E60" s="21"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="H60" s="17">
+        <f t="shared" ref="H60:H62" si="11">$F$59*G60</f>
+        <v>570000</v>
+      </c>
+      <c r="I60" s="16">
+        <v>2</v>
+      </c>
+      <c r="J60" s="16">
+        <f>I60+I61</f>
+        <v>2</v>
+      </c>
+      <c r="K60" s="20">
+        <f>H60/J60</f>
+        <v>285000</v>
+      </c>
+      <c r="L60" s="20">
+        <f>L59+K60</f>
+        <v>405000</v>
+      </c>
+      <c r="M60" s="20">
+        <f>L60/10</f>
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="61" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E61" s="21"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H61" s="17">
+        <f t="shared" si="11"/>
+        <v>420000.00000000006</v>
+      </c>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" s="16">
+        <f>I61+I62</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="20" t="e">
+        <f>H61/J61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L61" s="20" t="e">
+        <f>L60+K61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" s="20" t="e">
+        <f>L61/10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E62" s="21"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="H62" s="17">
+        <f t="shared" si="11"/>
+        <v>270000</v>
+      </c>
+      <c r="I62" s="16">
+        <v>0</v>
+      </c>
+      <c r="J62" s="20">
+        <f>I62+I63</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="20" t="e">
+        <f>H62/J62</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L62" s="20" t="e">
+        <f>L61+K62</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" s="20" t="e">
+        <f>L62/10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E64" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L64" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M64" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E65" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="G65" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="H65" s="17">
+        <f>$F$65*G65</f>
+        <v>240000</v>
+      </c>
+      <c r="I65" s="16">
+        <v>4</v>
+      </c>
+      <c r="J65" s="16">
+        <f>I65+I66</f>
+        <v>6</v>
+      </c>
+      <c r="K65" s="20">
+        <f>H65/J65</f>
+        <v>40000</v>
+      </c>
+      <c r="L65" s="20">
+        <f>K65</f>
+        <v>40000</v>
+      </c>
+      <c r="M65" s="20">
+        <f>L65/10</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E66" s="21"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="H66" s="17">
+        <f t="shared" ref="H66:H68" si="12">$F$65*G66</f>
+        <v>190000</v>
+      </c>
+      <c r="I66" s="16">
+        <v>2</v>
+      </c>
+      <c r="J66" s="16">
+        <f>I66+I67</f>
+        <v>3</v>
+      </c>
+      <c r="K66" s="20">
+        <f>H66/J66</f>
+        <v>63333.333333333336</v>
+      </c>
+      <c r="L66" s="20">
+        <f>L65+K66</f>
+        <v>103333.33333333334</v>
+      </c>
+      <c r="M66" s="20">
+        <f>L66/10</f>
+        <v>10333.333333333334</v>
+      </c>
+    </row>
+    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E67" s="21"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H67" s="17">
+        <f t="shared" si="12"/>
+        <v>140000</v>
+      </c>
+      <c r="I67" s="16">
+        <v>1</v>
+      </c>
+      <c r="J67" s="16">
+        <f>I67+I68</f>
+        <v>1</v>
+      </c>
+      <c r="K67" s="20">
+        <f>H67/J67</f>
+        <v>140000</v>
+      </c>
+      <c r="L67" s="20">
+        <f>L66+K67</f>
+        <v>243333.33333333334</v>
+      </c>
+      <c r="M67" s="20">
+        <f>L67/10</f>
+        <v>24333.333333333336</v>
+      </c>
+    </row>
+    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E68" s="21"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="H68" s="17">
+        <f t="shared" si="12"/>
+        <v>90000</v>
+      </c>
+      <c r="I68" s="16">
+        <v>0</v>
+      </c>
+      <c r="J68" s="16">
+        <f>I68+I69</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="20" t="e">
+        <f>H68/J68</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L68" s="20" t="e">
+        <f>L67+K68</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M68" s="20" t="e">
+        <f>L68/10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="E65:E68"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -3002,4 +4351,1085 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06A0176-16F2-48E7-B8DE-4328F86C8658}">
+  <dimension ref="B14:T46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="20" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="58"/>
+      <c r="C17" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="R17" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="S17" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="T17" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="70">
+        <v>3</v>
+      </c>
+      <c r="D18" s="70">
+        <v>0</v>
+      </c>
+      <c r="E18" s="70">
+        <v>0</v>
+      </c>
+      <c r="F18" s="70">
+        <v>0</v>
+      </c>
+      <c r="G18" s="70">
+        <v>3</v>
+      </c>
+      <c r="H18" s="70">
+        <v>0</v>
+      </c>
+      <c r="I18" s="70">
+        <v>0</v>
+      </c>
+      <c r="J18" s="70">
+        <v>0</v>
+      </c>
+      <c r="K18" s="70">
+        <v>0</v>
+      </c>
+      <c r="L18" s="70">
+        <v>1</v>
+      </c>
+      <c r="M18" s="70">
+        <v>0</v>
+      </c>
+      <c r="N18" s="70">
+        <v>0</v>
+      </c>
+      <c r="O18" s="70">
+        <v>0</v>
+      </c>
+      <c r="P18" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="70">
+        <v>0</v>
+      </c>
+      <c r="R18" s="70">
+        <v>0</v>
+      </c>
+      <c r="S18" s="70">
+        <v>0</v>
+      </c>
+      <c r="T18" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="68">
+        <v>3000000</v>
+      </c>
+      <c r="D19" s="68">
+        <v>0</v>
+      </c>
+      <c r="E19" s="68">
+        <v>0</v>
+      </c>
+      <c r="F19" s="68">
+        <v>0</v>
+      </c>
+      <c r="G19" s="68">
+        <v>3000000</v>
+      </c>
+      <c r="H19" s="68">
+        <v>0</v>
+      </c>
+      <c r="I19" s="68">
+        <v>0</v>
+      </c>
+      <c r="J19" s="68">
+        <v>0</v>
+      </c>
+      <c r="K19" s="68">
+        <v>0</v>
+      </c>
+      <c r="L19" s="68">
+        <v>1000000</v>
+      </c>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="57"/>
+      <c r="C23" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="N23" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="O23" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="R23" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="S23" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="T23" s="59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="O24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="R24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="S24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="T24" s="63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="N25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="O25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="P25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="S25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="T25" s="63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="63">
+        <v>0</v>
+      </c>
+      <c r="D26" s="63">
+        <v>0</v>
+      </c>
+      <c r="E26" s="63">
+        <v>0</v>
+      </c>
+      <c r="F26" s="63">
+        <v>0</v>
+      </c>
+      <c r="G26" s="63">
+        <v>0</v>
+      </c>
+      <c r="H26" s="63">
+        <v>0</v>
+      </c>
+      <c r="I26" s="63">
+        <v>0</v>
+      </c>
+      <c r="J26" s="63">
+        <v>0</v>
+      </c>
+      <c r="K26" s="63">
+        <v>0</v>
+      </c>
+      <c r="L26" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="N26" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="O26" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q26" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="R26" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="S26" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="T26" s="63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="63">
+        <v>0</v>
+      </c>
+      <c r="D27" s="63">
+        <v>0</v>
+      </c>
+      <c r="E27" s="63">
+        <v>0</v>
+      </c>
+      <c r="F27" s="63">
+        <v>0</v>
+      </c>
+      <c r="G27" s="63">
+        <v>0</v>
+      </c>
+      <c r="H27" s="63">
+        <v>0</v>
+      </c>
+      <c r="I27" s="63">
+        <v>0</v>
+      </c>
+      <c r="J27" s="63">
+        <v>0</v>
+      </c>
+      <c r="K27" s="63">
+        <v>0</v>
+      </c>
+      <c r="L27" s="63">
+        <v>0</v>
+      </c>
+      <c r="M27" s="63">
+        <v>0</v>
+      </c>
+      <c r="N27" s="63">
+        <v>0</v>
+      </c>
+      <c r="O27" s="63">
+        <v>0</v>
+      </c>
+      <c r="P27" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="63">
+        <v>0</v>
+      </c>
+      <c r="R27" s="63">
+        <v>0</v>
+      </c>
+      <c r="S27" s="63">
+        <v>0</v>
+      </c>
+      <c r="T27" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="63">
+        <v>0</v>
+      </c>
+      <c r="D28" s="63">
+        <v>0</v>
+      </c>
+      <c r="E28" s="63">
+        <v>0</v>
+      </c>
+      <c r="F28" s="63">
+        <v>0</v>
+      </c>
+      <c r="G28" s="63">
+        <v>0</v>
+      </c>
+      <c r="H28" s="63">
+        <v>0</v>
+      </c>
+      <c r="I28" s="63">
+        <v>0</v>
+      </c>
+      <c r="J28" s="63">
+        <v>0</v>
+      </c>
+      <c r="K28" s="63">
+        <v>0</v>
+      </c>
+      <c r="L28" s="63">
+        <v>0</v>
+      </c>
+      <c r="M28" s="63">
+        <v>0</v>
+      </c>
+      <c r="N28" s="63">
+        <v>0</v>
+      </c>
+      <c r="O28" s="63">
+        <v>0</v>
+      </c>
+      <c r="P28" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="63">
+        <v>0</v>
+      </c>
+      <c r="R28" s="63">
+        <v>0</v>
+      </c>
+      <c r="S28" s="63">
+        <v>0</v>
+      </c>
+      <c r="T28" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="63">
+        <v>0</v>
+      </c>
+      <c r="D29" s="63">
+        <v>0</v>
+      </c>
+      <c r="E29" s="63">
+        <v>0</v>
+      </c>
+      <c r="F29" s="63">
+        <v>0</v>
+      </c>
+      <c r="G29" s="63">
+        <v>0</v>
+      </c>
+      <c r="H29" s="63">
+        <v>0</v>
+      </c>
+      <c r="I29" s="63">
+        <v>0</v>
+      </c>
+      <c r="J29" s="63">
+        <v>0</v>
+      </c>
+      <c r="K29" s="63">
+        <v>0</v>
+      </c>
+      <c r="L29" s="63">
+        <v>0</v>
+      </c>
+      <c r="M29" s="63">
+        <v>0</v>
+      </c>
+      <c r="N29" s="63">
+        <v>0</v>
+      </c>
+      <c r="O29" s="63">
+        <v>0</v>
+      </c>
+      <c r="P29" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="63">
+        <v>0</v>
+      </c>
+      <c r="R29" s="63">
+        <v>0</v>
+      </c>
+      <c r="S29" s="63">
+        <v>0</v>
+      </c>
+      <c r="T29" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="63">
+        <v>0</v>
+      </c>
+      <c r="D30" s="63">
+        <v>0</v>
+      </c>
+      <c r="E30" s="63">
+        <v>0</v>
+      </c>
+      <c r="F30" s="63">
+        <v>0</v>
+      </c>
+      <c r="G30" s="63">
+        <v>0</v>
+      </c>
+      <c r="H30" s="63">
+        <v>0</v>
+      </c>
+      <c r="I30" s="63">
+        <v>0</v>
+      </c>
+      <c r="J30" s="63">
+        <v>0</v>
+      </c>
+      <c r="K30" s="63">
+        <v>0</v>
+      </c>
+      <c r="L30" s="63">
+        <v>0</v>
+      </c>
+      <c r="M30" s="63">
+        <v>0</v>
+      </c>
+      <c r="N30" s="63">
+        <v>0</v>
+      </c>
+      <c r="O30" s="63">
+        <v>0</v>
+      </c>
+      <c r="P30" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="63">
+        <v>0</v>
+      </c>
+      <c r="R30" s="63">
+        <v>0</v>
+      </c>
+      <c r="S30" s="63">
+        <v>0</v>
+      </c>
+      <c r="T30" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="63">
+        <v>0</v>
+      </c>
+      <c r="D31" s="63">
+        <v>0</v>
+      </c>
+      <c r="E31" s="63">
+        <v>0</v>
+      </c>
+      <c r="F31" s="63">
+        <v>0</v>
+      </c>
+      <c r="G31" s="63">
+        <v>0</v>
+      </c>
+      <c r="H31" s="63">
+        <v>0</v>
+      </c>
+      <c r="I31" s="63">
+        <v>0</v>
+      </c>
+      <c r="J31" s="63">
+        <v>0</v>
+      </c>
+      <c r="K31" s="63">
+        <v>0</v>
+      </c>
+      <c r="L31" s="63">
+        <v>0</v>
+      </c>
+      <c r="M31" s="63">
+        <v>0</v>
+      </c>
+      <c r="N31" s="63">
+        <v>0</v>
+      </c>
+      <c r="O31" s="63">
+        <v>0</v>
+      </c>
+      <c r="P31" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="63">
+        <v>0</v>
+      </c>
+      <c r="R31" s="63">
+        <v>0</v>
+      </c>
+      <c r="S31" s="63">
+        <v>0</v>
+      </c>
+      <c r="T31" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="L32" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="M32" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="N32" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="O32" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="P32" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q32" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="R32" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="S32" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="T32" s="64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B33" s="71"/>
+      <c r="C33" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B34" s="71"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B36" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B37" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="63">
+        <v>0</v>
+      </c>
+      <c r="D37" s="63">
+        <v>0</v>
+      </c>
+      <c r="E37" s="63">
+        <v>0</v>
+      </c>
+      <c r="F37" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B38" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="63">
+        <v>0</v>
+      </c>
+      <c r="D38" s="63">
+        <v>0</v>
+      </c>
+      <c r="E38" s="63">
+        <v>0</v>
+      </c>
+      <c r="F38" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B39" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="63">
+        <v>0</v>
+      </c>
+      <c r="D39" s="63">
+        <v>0</v>
+      </c>
+      <c r="E39" s="63">
+        <v>0</v>
+      </c>
+      <c r="F39" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B40" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="63">
+        <v>0</v>
+      </c>
+      <c r="D40" s="63">
+        <v>0</v>
+      </c>
+      <c r="E40" s="63">
+        <v>0</v>
+      </c>
+      <c r="F40" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B41" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="63">
+        <v>0</v>
+      </c>
+      <c r="D41" s="63">
+        <v>0</v>
+      </c>
+      <c r="E41" s="63">
+        <v>0</v>
+      </c>
+      <c r="F41" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B42" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="63">
+        <v>0</v>
+      </c>
+      <c r="D42" s="63">
+        <v>0</v>
+      </c>
+      <c r="E42" s="63">
+        <v>0</v>
+      </c>
+      <c r="F42" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B43" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="63">
+        <v>0</v>
+      </c>
+      <c r="D43" s="63">
+        <v>0</v>
+      </c>
+      <c r="E43" s="63">
+        <v>0</v>
+      </c>
+      <c r="F43" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B44" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="63">
+        <v>0</v>
+      </c>
+      <c r="D44" s="63">
+        <v>0</v>
+      </c>
+      <c r="E44" s="63">
+        <v>0</v>
+      </c>
+      <c r="F44" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B45" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="64">
+        <v>0</v>
+      </c>
+      <c r="D45" s="64">
+        <v>0</v>
+      </c>
+      <c r="E45" s="64">
+        <v>0</v>
+      </c>
+      <c r="F45" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C46" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test-data/용역비지급명부_20251015.xlsx
+++ b/test-data/용역비지급명부_20251015.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE23C792-20E4-4728-9DA3-3AD2CE4F0041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B0178E-168C-42C0-93B0-ED199C21BA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="25620" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역비 지급명부" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="용역지 지급명부2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
   <si>
     <t>용역비 지급명부</t>
   </si>
@@ -321,386 +321,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등급</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주</t>
-    </r>
+    <t xml:space="preserve"> 8월 1주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 3주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 4주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 5주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 1주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 3주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 4주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10월 1주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10월 2주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10월 3주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10월 4주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10월 5주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11월 1주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11월 2주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11월 3주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11월 4주</t>
+  </si>
+  <si>
+    <t>사(2)- 추2(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주</t>
-    </r>
+    <t>한(1) - 등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주</t>
-    </r>
+    <t>황(1) -등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주</t>
-    </r>
+    <t>한2(2) -등승</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주</t>
-    </r>
+    <t>사1(2)-추2(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F1</t>
+    <t>이(2)-승</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F2</t>
+    <t>한(1)-추1(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <r>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>년</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 11</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
+    <t>김(1) - 추(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>년</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
+    <t>이(1) - 추(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>년</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 9</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
+    <t>황(1)-추1(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>년</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
+    <t>황2(1)-추1(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등급별 지급통계 - 주간</t>
+    <t>한2(2)-추2(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등급별 지급통계 - 월간</t>
+    <t>최(1)-등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등록수</t>
+    <t>최2(1)-등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>년</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
+    <t>한지(1)-등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구분</t>
+    <t>이정(1)-등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4주</t>
-  </si>
-  <si>
-    <t>매출통계</t>
+    <t>김태(1)-등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매출금</t>
+    <t>정우(1)-등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등록수 : 7명</t>
+    <t>정우2(1)-등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매출액 : 7000000</t>
+    <t>정우3(1)-등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1주</t>
-  </si>
-  <si>
-    <t>2주</t>
-  </si>
-  <si>
-    <t>3주</t>
-  </si>
-  <si>
-    <t>5주</t>
-  </si>
-  <si>
-    <t>0(2명)</t>
+    <t>김(1)-종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0(4명)</t>
+    <t>사1(2)-종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0(1명)</t>
-  </si>
-  <si>
-    <t>각 셀의  표시: 금액(인원수)</t>
+    <t>이(2)-추2(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0(3명)</t>
-  </si>
-  <si>
-    <t>0(6명)</t>
-  </si>
-  <si>
-    <t>0(7명)</t>
+    <t>한(1)-종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한2(2)-추2(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황2(1)-종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황(1)-종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최(1)-추1(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최2(1)-추1(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한지(1)-추1(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정(1)-추1(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,66 +570,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,19 +638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBEAFE"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F4F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1335,17 +1074,8 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,9 +1088,8 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,51 +1141,20 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1513,6 +1211,187 @@
         <a:xfrm>
           <a:off x="190501" y="4457699"/>
           <a:ext cx="3121832" cy="2524125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>237702</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5058CE7C-E963-F572-03D8-083085C60EA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18396857" y="653143"/>
+          <a:ext cx="3380952" cy="3714751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>630834</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>174774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E24E4EB-857C-3A9E-27F9-C15F384BF487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19907251" y="4544786"/>
+          <a:ext cx="4304762" cy="6066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB818638-9C3E-2624-1724-77A8ECBC481E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3823607" y="2422072"/>
+          <a:ext cx="3442607" cy="3835083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>494964</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>169798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A6EBA2-FEBD-A1E1-3386-4195177D22AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="734786" y="1020536"/>
+          <a:ext cx="2685714" cy="2333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1848,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17:W17"/>
+    <sheetView topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1864,31 +1743,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1941,19 +1820,19 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="55" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -2012,11 +1891,11 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
@@ -3228,141 +3107,141 @@
     </row>
     <row r="39" spans="5:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="5:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="52" t="s">
+      <c r="F40" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="52" t="s">
+      <c r="G40" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="52" t="s">
+      <c r="H40" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="52" t="s">
+      <c r="I40" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="54" t="s">
+      <c r="J40" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="56" t="s">
+      <c r="K40" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="52" t="s">
+      <c r="L40" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="M40" s="52" t="s">
+      <c r="M40" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="53" t="s">
+      <c r="N40" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="O40" s="55" t="s">
+      <c r="O40" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="P40" s="52" t="s">
+      <c r="P40" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q40" s="52" t="s">
+      <c r="Q40" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R40" s="52" t="s">
+      <c r="R40" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="S40" s="54" t="s">
+      <c r="S40" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="T40" s="56" t="s">
+      <c r="T40" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="U40" s="52" t="s">
+      <c r="U40" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="52" t="s">
+      <c r="V40" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="W40" s="53" t="s">
+      <c r="W40" s="49" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="34">
         <v>81000</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="22">
         <v>81000</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="22">
         <v>81000</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I41" s="22">
         <v>81000</v>
       </c>
-      <c r="J41" s="39">
+      <c r="J41" s="35">
         <v>81000</v>
       </c>
-      <c r="K41" s="45">
+      <c r="K41" s="41">
         <f>K21+K25</f>
         <v>121500</v>
       </c>
-      <c r="L41" s="26">
+      <c r="L41" s="23">
         <f t="shared" ref="L41:N41" si="0">L21+L25</f>
         <v>121500</v>
       </c>
-      <c r="M41" s="26">
+      <c r="M41" s="23">
         <f t="shared" si="0"/>
         <v>121500</v>
       </c>
-      <c r="N41" s="27">
+      <c r="N41" s="24">
         <f t="shared" si="0"/>
         <v>121500</v>
       </c>
-      <c r="O41" s="45">
+      <c r="O41" s="41">
         <f>O21+O25+O32</f>
         <v>105300</v>
       </c>
-      <c r="P41" s="26">
+      <c r="P41" s="23">
         <f t="shared" ref="P41:W41" si="1">P21+P25+P32</f>
         <v>24300</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="Q41" s="23">
         <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="R41" s="26">
+      <c r="R41" s="23">
         <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="S41" s="27">
+      <c r="S41" s="24">
         <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="T41" s="26">
+      <c r="T41" s="23">
         <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="U41" s="26">
+      <c r="U41" s="23">
         <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="V41" s="26">
+      <c r="V41" s="23">
         <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-      <c r="W41" s="27">
+      <c r="W41" s="24">
         <f t="shared" si="1"/>
         <v>24300</v>
       </c>
     </row>
     <row r="42" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="36">
         <v>24000</v>
       </c>
       <c r="G42" s="9">
@@ -3374,67 +3253,67 @@
       <c r="I42" s="9">
         <v>24000</v>
       </c>
-      <c r="J42" s="41">
+      <c r="J42" s="37">
         <v>24000</v>
       </c>
-      <c r="K42" s="46">
+      <c r="K42" s="42">
         <f t="shared" ref="K42:N42" si="2">K22+K26</f>
         <v>64500</v>
       </c>
-      <c r="L42" s="29">
+      <c r="L42" s="26">
         <f t="shared" si="2"/>
         <v>64500</v>
       </c>
-      <c r="M42" s="29">
+      <c r="M42" s="26">
         <f t="shared" si="2"/>
         <v>64500</v>
       </c>
-      <c r="N42" s="30">
+      <c r="N42" s="27">
         <f t="shared" si="2"/>
         <v>64500</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O42" s="42">
         <f t="shared" ref="O42:W42" si="3">O22+O26+O33</f>
         <v>74800</v>
       </c>
-      <c r="P42" s="29">
+      <c r="P42" s="26">
         <f t="shared" si="3"/>
         <v>50800</v>
       </c>
-      <c r="Q42" s="29">
+      <c r="Q42" s="26">
         <f t="shared" si="3"/>
         <v>50800</v>
       </c>
-      <c r="R42" s="29">
+      <c r="R42" s="26">
         <f t="shared" si="3"/>
         <v>50800</v>
       </c>
-      <c r="S42" s="30">
+      <c r="S42" s="27">
         <f t="shared" si="3"/>
         <v>50800</v>
       </c>
-      <c r="T42" s="29">
+      <c r="T42" s="26">
         <f t="shared" si="3"/>
         <v>50800</v>
       </c>
-      <c r="U42" s="29">
+      <c r="U42" s="26">
         <f t="shared" si="3"/>
         <v>10300</v>
       </c>
-      <c r="V42" s="29">
+      <c r="V42" s="26">
         <f t="shared" si="3"/>
         <v>10300</v>
       </c>
-      <c r="W42" s="30">
+      <c r="W42" s="27">
         <f t="shared" si="3"/>
         <v>10300</v>
       </c>
     </row>
     <row r="43" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="36">
         <v>24000</v>
       </c>
       <c r="G43" s="9">
@@ -3446,82 +3325,82 @@
       <c r="I43" s="9">
         <v>24000</v>
       </c>
-      <c r="J43" s="41">
+      <c r="J43" s="37">
         <v>24000</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="42">
         <f t="shared" ref="K43:N43" si="4">K23+K27</f>
         <v>36000</v>
       </c>
-      <c r="L43" s="29">
+      <c r="L43" s="26">
         <f t="shared" si="4"/>
         <v>36000</v>
       </c>
-      <c r="M43" s="29">
+      <c r="M43" s="26">
         <f t="shared" si="4"/>
         <v>36000</v>
       </c>
-      <c r="N43" s="30">
+      <c r="N43" s="27">
         <f t="shared" si="4"/>
         <v>36000</v>
       </c>
-      <c r="O43" s="46">
+      <c r="O43" s="42">
         <f t="shared" ref="O43:W43" si="5">O23+O27+O34</f>
         <v>34300</v>
       </c>
-      <c r="P43" s="29">
+      <c r="P43" s="26">
         <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="Q43" s="29">
+      <c r="Q43" s="26">
         <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="R43" s="29">
+      <c r="R43" s="26">
         <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="S43" s="30">
+      <c r="S43" s="27">
         <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="T43" s="29">
+      <c r="T43" s="26">
         <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="U43" s="29">
+      <c r="U43" s="26">
         <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="V43" s="29">
+      <c r="V43" s="26">
         <f t="shared" si="5"/>
         <v>10300</v>
       </c>
-      <c r="W43" s="30">
+      <c r="W43" s="27">
         <f t="shared" si="5"/>
         <v>10300</v>
       </c>
     </row>
     <row r="44" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="28">
-        <v>0</v>
-      </c>
-      <c r="G44" s="31">
-        <v>0</v>
-      </c>
-      <c r="H44" s="31">
-        <v>0</v>
-      </c>
-      <c r="I44" s="31">
-        <v>0</v>
-      </c>
-      <c r="J44" s="42">
-        <v>0</v>
-      </c>
-      <c r="K44" s="40">
+      <c r="F44" s="25">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="38">
+        <v>0</v>
+      </c>
+      <c r="K44" s="36">
         <v>12000</v>
       </c>
       <c r="L44" s="9">
@@ -3530,66 +3409,66 @@
       <c r="M44" s="9">
         <v>12000</v>
       </c>
-      <c r="N44" s="41">
+      <c r="N44" s="37">
         <v>12000</v>
       </c>
-      <c r="O44" s="46">
+      <c r="O44" s="42">
         <f t="shared" ref="O44:W44" si="6">O24+O28+O35</f>
         <v>16000</v>
       </c>
-      <c r="P44" s="29">
+      <c r="P44" s="26">
         <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="Q44" s="29">
+      <c r="Q44" s="26">
         <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="R44" s="29">
+      <c r="R44" s="26">
         <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="S44" s="30">
+      <c r="S44" s="27">
         <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="T44" s="29">
+      <c r="T44" s="26">
         <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="U44" s="29">
+      <c r="U44" s="26">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="V44" s="29">
+      <c r="V44" s="26">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="W44" s="30">
+      <c r="W44" s="27">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
     </row>
     <row r="45" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="28">
-        <v>0</v>
-      </c>
-      <c r="G45" s="31">
-        <v>0</v>
-      </c>
-      <c r="H45" s="31">
-        <v>0</v>
-      </c>
-      <c r="I45" s="31">
-        <v>0</v>
-      </c>
-      <c r="J45" s="42">
-        <v>0</v>
-      </c>
-      <c r="K45" s="40">
+      <c r="F45" s="25">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="38">
+        <v>0</v>
+      </c>
+      <c r="K45" s="36">
         <v>12000</v>
       </c>
       <c r="L45" s="9">
@@ -3598,66 +3477,66 @@
       <c r="M45" s="9">
         <v>12000</v>
       </c>
-      <c r="N45" s="41">
+      <c r="N45" s="37">
         <v>12000</v>
       </c>
-      <c r="O45" s="46">
+      <c r="O45" s="42">
         <f t="shared" ref="O45:W45" si="7">O25+O29+O36</f>
         <v>16000</v>
       </c>
-      <c r="P45" s="29">
+      <c r="P45" s="26">
         <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="Q45" s="29">
+      <c r="Q45" s="26">
         <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="R45" s="29">
+      <c r="R45" s="26">
         <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="S45" s="30">
+      <c r="S45" s="27">
         <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="T45" s="29">
+      <c r="T45" s="26">
         <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="U45" s="29">
+      <c r="U45" s="26">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-      <c r="V45" s="29">
+      <c r="V45" s="26">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-      <c r="W45" s="30">
+      <c r="W45" s="27">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
     </row>
     <row r="46" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="28">
-        <v>0</v>
-      </c>
-      <c r="G46" s="31">
-        <v>0</v>
-      </c>
-      <c r="H46" s="31">
-        <v>0</v>
-      </c>
-      <c r="I46" s="31">
-        <v>0</v>
-      </c>
-      <c r="J46" s="42">
-        <v>0</v>
-      </c>
-      <c r="K46" s="40">
+      <c r="F46" s="25">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="38">
+        <v>0</v>
+      </c>
+      <c r="K46" s="36">
         <v>12000</v>
       </c>
       <c r="L46" s="9">
@@ -3666,319 +3545,319 @@
       <c r="M46" s="9">
         <v>12000</v>
       </c>
-      <c r="N46" s="41">
+      <c r="N46" s="37">
         <v>12000</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="42">
         <f>O30+O37</f>
         <v>16000</v>
       </c>
-      <c r="P46" s="29">
+      <c r="P46" s="26">
         <f t="shared" ref="P46:W46" si="8">P30+P37</f>
         <v>16000</v>
       </c>
-      <c r="Q46" s="29">
+      <c r="Q46" s="26">
         <f t="shared" si="8"/>
         <v>16000</v>
       </c>
-      <c r="R46" s="29">
+      <c r="R46" s="26">
         <f t="shared" si="8"/>
         <v>16000</v>
       </c>
-      <c r="S46" s="30">
+      <c r="S46" s="27">
         <f t="shared" si="8"/>
         <v>16000</v>
       </c>
-      <c r="T46" s="29">
+      <c r="T46" s="26">
         <f t="shared" si="8"/>
         <v>16000</v>
       </c>
-      <c r="U46" s="29">
+      <c r="U46" s="26">
         <f t="shared" si="8"/>
         <v>4000</v>
       </c>
-      <c r="V46" s="29">
+      <c r="V46" s="26">
         <f t="shared" si="8"/>
         <v>4000</v>
       </c>
-      <c r="W46" s="30">
+      <c r="W46" s="27">
         <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
     <row r="47" spans="5:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="32">
-        <v>0</v>
-      </c>
-      <c r="G47" s="33">
-        <v>0</v>
-      </c>
-      <c r="H47" s="33">
-        <v>0</v>
-      </c>
-      <c r="I47" s="33">
-        <v>0</v>
-      </c>
-      <c r="J47" s="43">
-        <v>0</v>
-      </c>
-      <c r="K47" s="32">
-        <v>0</v>
-      </c>
-      <c r="L47" s="33">
-        <v>0</v>
-      </c>
-      <c r="M47" s="33">
-        <v>0</v>
-      </c>
-      <c r="N47" s="43">
-        <v>0</v>
-      </c>
-      <c r="O47" s="47">
+      <c r="F47" s="28">
+        <v>0</v>
+      </c>
+      <c r="G47" s="29">
+        <v>0</v>
+      </c>
+      <c r="H47" s="29">
+        <v>0</v>
+      </c>
+      <c r="I47" s="29">
+        <v>0</v>
+      </c>
+      <c r="J47" s="39">
+        <v>0</v>
+      </c>
+      <c r="K47" s="28">
+        <v>0</v>
+      </c>
+      <c r="L47" s="29">
+        <v>0</v>
+      </c>
+      <c r="M47" s="29">
+        <v>0</v>
+      </c>
+      <c r="N47" s="39">
+        <v>0</v>
+      </c>
+      <c r="O47" s="43">
         <v>4000</v>
       </c>
-      <c r="P47" s="34">
+      <c r="P47" s="30">
         <v>4000</v>
       </c>
-      <c r="Q47" s="34">
+      <c r="Q47" s="30">
         <v>4000</v>
       </c>
-      <c r="R47" s="34">
+      <c r="R47" s="30">
         <v>4000</v>
       </c>
-      <c r="S47" s="35">
+      <c r="S47" s="31">
         <v>4000</v>
       </c>
-      <c r="T47" s="44">
+      <c r="T47" s="40">
         <v>4000</v>
       </c>
-      <c r="U47" s="34">
+      <c r="U47" s="30">
         <v>4000</v>
       </c>
-      <c r="V47" s="34">
+      <c r="V47" s="30">
         <v>4000</v>
       </c>
-      <c r="W47" s="35">
+      <c r="W47" s="31">
         <v>4000</v>
       </c>
     </row>
     <row r="48" spans="5:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="45">
         <f>SUM(F41:F47)</f>
         <v>129000</v>
       </c>
-      <c r="G48" s="50">
+      <c r="G48" s="46">
         <f t="shared" ref="G48:W48" si="9">SUM(G41:G47)</f>
         <v>129000</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="46">
         <f t="shared" si="9"/>
         <v>129000</v>
       </c>
-      <c r="I48" s="50">
+      <c r="I48" s="46">
         <f t="shared" si="9"/>
         <v>129000</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="47">
         <f t="shared" si="9"/>
         <v>129000</v>
       </c>
-      <c r="K48" s="49">
+      <c r="K48" s="45">
         <f t="shared" si="9"/>
         <v>258000</v>
       </c>
-      <c r="L48" s="50">
+      <c r="L48" s="46">
         <f t="shared" si="9"/>
         <v>258000</v>
       </c>
-      <c r="M48" s="50">
+      <c r="M48" s="46">
         <f t="shared" si="9"/>
         <v>258000</v>
       </c>
-      <c r="N48" s="51">
+      <c r="N48" s="47">
         <f t="shared" si="9"/>
         <v>258000</v>
       </c>
-      <c r="O48" s="49">
+      <c r="O48" s="45">
         <f t="shared" si="9"/>
         <v>266400</v>
       </c>
-      <c r="P48" s="50">
+      <c r="P48" s="46">
         <f t="shared" si="9"/>
         <v>137400</v>
       </c>
-      <c r="Q48" s="50">
+      <c r="Q48" s="46">
         <f t="shared" si="9"/>
         <v>137400</v>
       </c>
-      <c r="R48" s="50">
+      <c r="R48" s="46">
         <f t="shared" si="9"/>
         <v>137400</v>
       </c>
-      <c r="S48" s="51">
+      <c r="S48" s="47">
         <f t="shared" si="9"/>
         <v>137400</v>
       </c>
-      <c r="T48" s="50">
+      <c r="T48" s="46">
         <f t="shared" si="9"/>
         <v>137400</v>
       </c>
-      <c r="U48" s="50">
+      <c r="U48" s="46">
         <f t="shared" si="9"/>
         <v>60900</v>
       </c>
-      <c r="V48" s="50">
+      <c r="V48" s="46">
         <f t="shared" si="9"/>
         <v>60900</v>
       </c>
-      <c r="W48" s="51">
+      <c r="W48" s="47">
         <f t="shared" si="9"/>
         <v>60900</v>
       </c>
     </row>
     <row r="49" spans="5:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="51">
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="47">
         <f>SUM(F48:J48)</f>
         <v>645000</v>
       </c>
-      <c r="K49" s="36"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="51">
+      <c r="K49" s="32"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="47">
         <f>SUM(K48:N48)</f>
         <v>1032000</v>
       </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="51">
+      <c r="O49" s="32"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="47">
         <f>SUM(O48:S48)</f>
         <v>816000</v>
       </c>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="51">
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="47">
         <f>SUM(T48:W48)</f>
         <v>320100</v>
       </c>
     </row>
     <row r="52" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="H52" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I52" s="23" t="s">
+      <c r="I52" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J52" s="23" t="s">
+      <c r="J52" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K52" s="23" t="s">
+      <c r="K52" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="L52" s="23" t="s">
+      <c r="L52" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="M52" s="23" t="s">
+      <c r="M52" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="53" t="s">
         <v>83</v>
       </c>
       <c r="F53" s="17">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="G53" s="16">
         <v>0.24</v>
       </c>
       <c r="H53" s="17">
         <f>$F$53*G53</f>
-        <v>720000</v>
+        <v>960000</v>
       </c>
       <c r="I53" s="16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J53" s="16">
         <f>I53+I54</f>
-        <v>3</v>
-      </c>
-      <c r="K53" s="20">
+        <v>10</v>
+      </c>
+      <c r="K53" s="18">
         <f>H53/J53</f>
-        <v>240000</v>
-      </c>
-      <c r="L53" s="20">
+        <v>96000</v>
+      </c>
+      <c r="L53" s="18">
         <f>K53</f>
-        <v>240000</v>
-      </c>
-      <c r="M53" s="20">
+        <v>96000</v>
+      </c>
+      <c r="M53" s="18">
         <f>L53/10</f>
-        <v>24000</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="54" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E54" s="21"/>
+      <c r="E54" s="53"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16">
         <v>0.19</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" ref="H54:H56" si="10">$F$53*G54</f>
-        <v>570000</v>
+        <v>760000</v>
       </c>
       <c r="I54" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" s="16">
         <f>I54+I55</f>
-        <v>1</v>
-      </c>
-      <c r="K54" s="20">
+        <v>2</v>
+      </c>
+      <c r="K54" s="18">
         <f>H54/J54</f>
-        <v>570000</v>
-      </c>
-      <c r="L54" s="20">
+        <v>380000</v>
+      </c>
+      <c r="L54" s="18">
         <f>L53+K54</f>
-        <v>810000</v>
-      </c>
-      <c r="M54" s="20">
+        <v>476000</v>
+      </c>
+      <c r="M54" s="18">
         <f>L54/10</f>
-        <v>81000</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="55" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E55" s="21"/>
+      <c r="E55" s="53"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16">
         <v>0.14000000000000001</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="10"/>
-        <v>420000.00000000006</v>
+        <v>560000</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3987,78 +3866,78 @@
         <f>I55+I56</f>
         <v>0</v>
       </c>
-      <c r="K55" s="20" t="e">
+      <c r="K55" s="18" t="e">
         <f>H55/J55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="20" t="e">
+      <c r="L55" s="18" t="e">
         <f>L54+K55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M55" s="20" t="e">
+      <c r="M55" s="18" t="e">
         <f>L55/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E56" s="21"/>
+      <c r="E56" s="53"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16">
         <v>0.09</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="10"/>
-        <v>270000</v>
+        <v>360000</v>
       </c>
       <c r="I56" s="16"/>
       <c r="J56" s="16">
         <f>I56+I57</f>
         <v>0</v>
       </c>
-      <c r="K56" s="20" t="e">
+      <c r="K56" s="18" t="e">
         <f>H56/J56</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="20" t="e">
+      <c r="L56" s="18" t="e">
         <f>L55+K56</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M56" s="20" t="e">
+      <c r="M56" s="18" t="e">
         <f>L56/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I58" s="23" t="s">
+      <c r="I58" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J58" s="23" t="s">
+      <c r="J58" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K58" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="L58" s="23" t="s">
+      <c r="L58" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="M58" s="23" t="s">
+      <c r="M58" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="53" t="s">
         <v>85</v>
       </c>
       <c r="F59" s="17">
@@ -4078,21 +3957,21 @@
         <f>I59+I60</f>
         <v>6</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="18">
         <f>H59/J59</f>
         <v>120000</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="18">
         <f>K59</f>
         <v>120000</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="18">
         <f>L59/10</f>
         <v>12000</v>
       </c>
     </row>
     <row r="60" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E60" s="21"/>
+      <c r="E60" s="53"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
         <v>0.19</v>
@@ -4108,21 +3987,21 @@
         <f>I60+I61</f>
         <v>2</v>
       </c>
-      <c r="K60" s="20">
+      <c r="K60" s="18">
         <f>H60/J60</f>
         <v>285000</v>
       </c>
-      <c r="L60" s="20">
+      <c r="L60" s="18">
         <f>L59+K60</f>
         <v>405000</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M60" s="18">
         <f>L60/10</f>
         <v>40500</v>
       </c>
     </row>
     <row r="61" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E61" s="21"/>
+      <c r="E61" s="53"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
         <v>0.14000000000000001</v>
@@ -4138,21 +4017,21 @@
         <f>I61+I62</f>
         <v>0</v>
       </c>
-      <c r="K61" s="20" t="e">
+      <c r="K61" s="18" t="e">
         <f>H61/J61</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L61" s="20" t="e">
+      <c r="L61" s="18" t="e">
         <f>L60+K61</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M61" s="20" t="e">
+      <c r="M61" s="18" t="e">
         <f>L61/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E62" s="21"/>
+      <c r="E62" s="53"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16">
         <v>0.09</v>
@@ -4164,54 +4043,54 @@
       <c r="I62" s="16">
         <v>0</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="18">
         <f>I62+I63</f>
         <v>0</v>
       </c>
-      <c r="K62" s="20" t="e">
+      <c r="K62" s="18" t="e">
         <f>H62/J62</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L62" s="20" t="e">
+      <c r="L62" s="18" t="e">
         <f>L61+K62</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M62" s="20" t="e">
+      <c r="M62" s="18" t="e">
         <f>L62/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="64" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G64" s="23" t="s">
+      <c r="G64" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H64" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I64" s="23" t="s">
+      <c r="I64" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J64" s="23" t="s">
+      <c r="J64" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K64" s="23" t="s">
+      <c r="K64" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="L64" s="23" t="s">
+      <c r="L64" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="M64" s="23" t="s">
+      <c r="M64" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="65" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="53" t="s">
         <v>84</v>
       </c>
       <c r="F65" s="17">
@@ -4231,21 +4110,21 @@
         <f>I65+I66</f>
         <v>6</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K65" s="18">
         <f>H65/J65</f>
         <v>40000</v>
       </c>
-      <c r="L65" s="20">
+      <c r="L65" s="18">
         <f>K65</f>
         <v>40000</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M65" s="18">
         <f>L65/10</f>
         <v>4000</v>
       </c>
     </row>
     <row r="66" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E66" s="21"/>
+      <c r="E66" s="53"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16">
         <v>0.19</v>
@@ -4261,21 +4140,21 @@
         <f>I66+I67</f>
         <v>3</v>
       </c>
-      <c r="K66" s="20">
+      <c r="K66" s="18">
         <f>H66/J66</f>
         <v>63333.333333333336</v>
       </c>
-      <c r="L66" s="20">
+      <c r="L66" s="18">
         <f>L65+K66</f>
         <v>103333.33333333334</v>
       </c>
-      <c r="M66" s="20">
+      <c r="M66" s="18">
         <f>L66/10</f>
         <v>10333.333333333334</v>
       </c>
     </row>
     <row r="67" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E67" s="21"/>
+      <c r="E67" s="53"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16">
         <v>0.14000000000000001</v>
@@ -4291,21 +4170,21 @@
         <f>I67+I68</f>
         <v>1</v>
       </c>
-      <c r="K67" s="20">
+      <c r="K67" s="18">
         <f>H67/J67</f>
         <v>140000</v>
       </c>
-      <c r="L67" s="20">
+      <c r="L67" s="18">
         <f>L66+K67</f>
         <v>243333.33333333334</v>
       </c>
-      <c r="M67" s="20">
+      <c r="M67" s="18">
         <f>L67/10</f>
         <v>24333.333333333336</v>
       </c>
     </row>
     <row r="68" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E68" s="21"/>
+      <c r="E68" s="53"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16">
         <v>0.09</v>
@@ -4321,15 +4200,15 @@
         <f>I68+I69</f>
         <v>0</v>
       </c>
-      <c r="K68" s="20" t="e">
+      <c r="K68" s="18" t="e">
         <f>H68/J68</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L68" s="20" t="e">
+      <c r="L68" s="18" t="e">
         <f>L67+K68</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M68" s="20" t="e">
+      <c r="M68" s="18" t="e">
         <f>L68/10</f>
         <v>#DIV/0!</v>
       </c>
@@ -4354,1082 +4233,2985 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06A0176-16F2-48E7-B8DE-4328F86C8658}">
-  <dimension ref="B14:T46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D672B0E-004C-460C-9B85-715FBF6C88F3}">
+  <dimension ref="C2:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="20" width="10.625" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="21" width="9.625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="56">
+        <v>81000</v>
+      </c>
+      <c r="E3" s="56">
+        <v>81000</v>
+      </c>
+      <c r="F3" s="56">
+        <v>81000</v>
+      </c>
+      <c r="G3" s="56">
+        <v>81000</v>
+      </c>
+      <c r="H3" s="56">
+        <v>81000</v>
+      </c>
+      <c r="I3" s="56">
+        <v>81000</v>
+      </c>
+      <c r="J3" s="56">
+        <v>81000</v>
+      </c>
+      <c r="K3" s="56">
+        <v>81000</v>
+      </c>
+      <c r="L3" s="56">
+        <v>81000</v>
+      </c>
+      <c r="M3" s="56">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="56">
+        <v>24000</v>
+      </c>
+      <c r="E4" s="56">
+        <v>24000</v>
+      </c>
+      <c r="F4" s="56">
+        <v>24000</v>
+      </c>
+      <c r="G4" s="56">
+        <v>24000</v>
+      </c>
+      <c r="H4" s="56">
+        <v>24000</v>
+      </c>
+      <c r="I4" s="56">
+        <v>24000</v>
+      </c>
+      <c r="J4" s="56">
+        <v>24000</v>
+      </c>
+      <c r="K4" s="56">
+        <v>24000</v>
+      </c>
+      <c r="L4" s="56">
+        <v>24000</v>
+      </c>
+      <c r="M4" s="56">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="56">
+        <v>24000</v>
+      </c>
+      <c r="E5" s="56">
+        <v>24000</v>
+      </c>
+      <c r="F5" s="56">
+        <v>24000</v>
+      </c>
+      <c r="G5" s="56">
+        <v>24000</v>
+      </c>
+      <c r="H5" s="56">
+        <v>24000</v>
+      </c>
+      <c r="I5" s="56">
+        <v>24000</v>
+      </c>
+      <c r="J5" s="56">
+        <v>24000</v>
+      </c>
+      <c r="K5" s="56">
+        <v>24000</v>
+      </c>
+      <c r="L5" s="56">
+        <v>24000</v>
+      </c>
+      <c r="M5" s="56">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="56">
+        <v>51700</v>
+      </c>
+      <c r="J7" s="56">
+        <v>51700</v>
+      </c>
+      <c r="K7" s="56">
+        <v>51700</v>
+      </c>
+      <c r="L7" s="56">
+        <v>51700</v>
+      </c>
+      <c r="M7" s="56">
+        <v>51700</v>
+      </c>
+      <c r="N7" s="56">
+        <v>51700</v>
+      </c>
+      <c r="O7" s="56">
+        <v>51700</v>
+      </c>
+      <c r="P7" s="56">
+        <v>51700</v>
+      </c>
+      <c r="Q7" s="56">
+        <v>51700</v>
+      </c>
+      <c r="R7" s="56">
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="56">
+        <v>13700</v>
+      </c>
+      <c r="J8" s="56">
+        <v>13700</v>
+      </c>
+      <c r="K8" s="56">
+        <v>13700</v>
+      </c>
+      <c r="L8" s="56">
+        <v>13700</v>
+      </c>
+      <c r="M8" s="56">
+        <v>13700</v>
+      </c>
+      <c r="N8" s="56">
+        <v>13700</v>
+      </c>
+      <c r="O8" s="56">
+        <v>13700</v>
+      </c>
+      <c r="P8" s="56">
+        <v>13700</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>13700</v>
+      </c>
+      <c r="R8" s="56">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="56">
+        <v>13700</v>
+      </c>
+      <c r="J9" s="56">
+        <v>13700</v>
+      </c>
+      <c r="K9" s="56">
+        <v>13700</v>
+      </c>
+      <c r="L9" s="56">
+        <v>13700</v>
+      </c>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="56">
+        <v>13700</v>
+      </c>
+      <c r="J10" s="56">
+        <v>13700</v>
+      </c>
+      <c r="K10" s="56">
+        <v>13700</v>
+      </c>
+      <c r="L10" s="56">
+        <v>13700</v>
+      </c>
+      <c r="M10" s="56">
+        <v>13700</v>
+      </c>
+      <c r="N10" s="56">
+        <v>13700</v>
+      </c>
+      <c r="O10" s="56">
+        <v>13700</v>
+      </c>
+      <c r="P10" s="56">
+        <v>13700</v>
+      </c>
+      <c r="Q10" s="56">
+        <v>13700</v>
+      </c>
+      <c r="R10" s="56">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="56">
+        <v>51700</v>
+      </c>
+      <c r="J11" s="56">
+        <v>51700</v>
+      </c>
+      <c r="K11" s="56">
+        <v>51700</v>
+      </c>
+      <c r="L11" s="56">
+        <v>51700</v>
+      </c>
+      <c r="M11" s="56">
+        <v>51700</v>
+      </c>
+      <c r="N11" s="56">
+        <v>51700</v>
+      </c>
+      <c r="O11" s="56">
+        <v>51700</v>
+      </c>
+      <c r="P11" s="56">
+        <v>51700</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>51700</v>
+      </c>
+      <c r="R11" s="56">
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="56">
+        <v>13700</v>
+      </c>
+      <c r="J12" s="56">
+        <v>13700</v>
+      </c>
+      <c r="K12" s="56">
+        <v>13700</v>
+      </c>
+      <c r="L12" s="56">
+        <v>13700</v>
+      </c>
+      <c r="M12" s="56">
+        <v>13700</v>
+      </c>
+      <c r="N12" s="56">
+        <v>13700</v>
+      </c>
+      <c r="O12" s="56">
+        <v>13700</v>
+      </c>
+      <c r="P12" s="56">
+        <v>13700</v>
+      </c>
+      <c r="Q12" s="56">
+        <v>13700</v>
+      </c>
+      <c r="R12" s="56">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="56">
+        <v>13700</v>
+      </c>
+      <c r="J13" s="56">
+        <v>13700</v>
+      </c>
+      <c r="K13" s="56">
+        <v>13700</v>
+      </c>
+      <c r="L13" s="56">
+        <v>13700</v>
+      </c>
+      <c r="M13" s="56">
+        <v>13700</v>
+      </c>
+      <c r="N13" s="56">
+        <v>13700</v>
+      </c>
+      <c r="O13" s="56">
+        <v>13700</v>
+      </c>
+      <c r="P13" s="56">
+        <v>13700</v>
+      </c>
+      <c r="Q13" s="56">
+        <v>13700</v>
+      </c>
+      <c r="R13" s="56">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="L15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="56">
+        <v>34900</v>
+      </c>
+      <c r="N15" s="56">
+        <v>34900</v>
+      </c>
+      <c r="O15" s="56">
+        <v>34900</v>
+      </c>
+      <c r="P15" s="56">
+        <v>34900</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>34900</v>
+      </c>
+      <c r="R15" s="56">
+        <v>34900</v>
+      </c>
+      <c r="S15" s="56">
+        <v>34900</v>
+      </c>
+      <c r="T15" s="56">
+        <v>34900</v>
+      </c>
+      <c r="U15" s="56">
+        <v>34900</v>
+      </c>
+      <c r="V15" s="56">
+        <v>34900</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="L16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+    </row>
+    <row r="17" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="L17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="56">
+        <v>34900</v>
+      </c>
+      <c r="N17" s="56">
+        <v>34900</v>
+      </c>
+      <c r="O17" s="56">
+        <v>34900</v>
+      </c>
+      <c r="P17" s="56">
+        <v>34900</v>
+      </c>
+      <c r="Q17" s="56">
+        <v>34900</v>
+      </c>
+      <c r="R17" s="56">
+        <v>34900</v>
+      </c>
+      <c r="S17" s="56">
+        <v>34900</v>
+      </c>
+      <c r="T17" s="56">
+        <v>34900</v>
+      </c>
+      <c r="U17" s="56">
+        <v>34900</v>
+      </c>
+      <c r="V17" s="56">
+        <v>34900</v>
+      </c>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="M18" s="56">
+        <v>9600</v>
+      </c>
+      <c r="N18" s="56">
+        <v>9600</v>
+      </c>
+      <c r="O18" s="56">
+        <v>9600</v>
+      </c>
+      <c r="P18" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Q18" s="56">
+        <v>9600</v>
+      </c>
+      <c r="R18" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S18" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T18" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U18" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V18" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="L19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="56">
+        <v>34900</v>
+      </c>
+      <c r="N19" s="56">
+        <v>34900</v>
+      </c>
+      <c r="O19" s="56">
+        <v>34900</v>
+      </c>
+      <c r="P19" s="56">
+        <v>34900</v>
+      </c>
+      <c r="Q19" s="56">
+        <v>34900</v>
+      </c>
+      <c r="R19" s="56">
+        <v>34900</v>
+      </c>
+      <c r="S19" s="56">
+        <v>34900</v>
+      </c>
+      <c r="T19" s="56">
+        <v>34900</v>
+      </c>
+      <c r="U19" s="56">
+        <v>34900</v>
+      </c>
+      <c r="V19" s="56">
+        <v>34900</v>
+      </c>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="L20" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="58"/>
-      <c r="C17" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="N17" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="O17" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="P17" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="R17" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="S17" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="T17" s="59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="70">
-        <v>3</v>
-      </c>
-      <c r="D18" s="70">
-        <v>0</v>
-      </c>
-      <c r="E18" s="70">
-        <v>0</v>
-      </c>
-      <c r="F18" s="70">
-        <v>0</v>
-      </c>
-      <c r="G18" s="70">
-        <v>3</v>
-      </c>
-      <c r="H18" s="70">
-        <v>0</v>
-      </c>
-      <c r="I18" s="70">
-        <v>0</v>
-      </c>
-      <c r="J18" s="70">
-        <v>0</v>
-      </c>
-      <c r="K18" s="70">
-        <v>0</v>
-      </c>
-      <c r="L18" s="70">
-        <v>1</v>
-      </c>
-      <c r="M18" s="70">
-        <v>0</v>
-      </c>
-      <c r="N18" s="70">
-        <v>0</v>
-      </c>
-      <c r="O18" s="70">
-        <v>0</v>
-      </c>
-      <c r="P18" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="70">
-        <v>0</v>
-      </c>
-      <c r="R18" s="70">
-        <v>0</v>
-      </c>
-      <c r="S18" s="70">
-        <v>0</v>
-      </c>
-      <c r="T18" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="68">
-        <v>3000000</v>
-      </c>
-      <c r="D19" s="68">
-        <v>0</v>
-      </c>
-      <c r="E19" s="68">
-        <v>0</v>
-      </c>
-      <c r="F19" s="68">
-        <v>0</v>
-      </c>
-      <c r="G19" s="68">
-        <v>3000000</v>
-      </c>
-      <c r="H19" s="68">
-        <v>0</v>
-      </c>
-      <c r="I19" s="68">
-        <v>0</v>
-      </c>
-      <c r="J19" s="68">
-        <v>0</v>
-      </c>
-      <c r="K19" s="68">
-        <v>0</v>
-      </c>
-      <c r="L19" s="68">
-        <v>1000000</v>
-      </c>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="59" t="s">
+      <c r="M20" s="56">
+        <v>9600</v>
+      </c>
+      <c r="N20" s="56">
+        <v>9600</v>
+      </c>
+      <c r="O20" s="56">
+        <v>9600</v>
+      </c>
+      <c r="P20" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Q20" s="56">
+        <v>9600</v>
+      </c>
+      <c r="R20" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S20" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T20" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U20" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V20" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="L21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="59" t="s">
+      <c r="M21" s="56">
+        <v>9600</v>
+      </c>
+      <c r="N21" s="56">
+        <v>9600</v>
+      </c>
+      <c r="O21" s="56">
+        <v>9600</v>
+      </c>
+      <c r="P21" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Q21" s="56">
+        <v>9600</v>
+      </c>
+      <c r="R21" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S21" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T21" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U21" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V21" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="22" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="L22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="59" t="s">
+      <c r="M22" s="56">
+        <v>9600</v>
+      </c>
+      <c r="N22" s="56">
+        <v>9600</v>
+      </c>
+      <c r="O22" s="56">
+        <v>9600</v>
+      </c>
+      <c r="P22" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Q22" s="56">
+        <v>9600</v>
+      </c>
+      <c r="R22" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S22" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T22" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U22" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V22" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="L23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="I23" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="K23" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="M23" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="N23" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="O23" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="P23" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q23" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="R23" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="S23" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="T23" s="59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="63" t="s">
+      <c r="M23" s="56">
+        <v>9600</v>
+      </c>
+      <c r="N23" s="56">
+        <v>9600</v>
+      </c>
+      <c r="O23" s="56">
+        <v>9600</v>
+      </c>
+      <c r="P23" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Q23" s="56">
+        <v>9600</v>
+      </c>
+      <c r="R23" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S23" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T23" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U23" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V23" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="L24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="63" t="s">
+      <c r="M24" s="56">
+        <v>9600</v>
+      </c>
+      <c r="N24" s="56">
+        <v>9600</v>
+      </c>
+      <c r="O24" s="56">
+        <v>9600</v>
+      </c>
+      <c r="P24" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Q24" s="56">
+        <v>9600</v>
+      </c>
+      <c r="R24" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S24" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T24" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U24" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V24" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="L25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="M24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="N24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="O24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="P24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="R24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="S24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="T24" s="63" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="63" t="s">
+      <c r="M25" s="56">
+        <v>9600</v>
+      </c>
+      <c r="N25" s="56">
+        <v>9600</v>
+      </c>
+      <c r="O25" s="56">
+        <v>9600</v>
+      </c>
+      <c r="P25" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Q25" s="56">
+        <v>9600</v>
+      </c>
+      <c r="R25" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S25" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T25" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U25" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V25" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R29" s="56">
+        <v>47600</v>
+      </c>
+      <c r="S29" s="56">
+        <v>47600</v>
+      </c>
+      <c r="T29" s="56">
+        <v>47600</v>
+      </c>
+      <c r="U29" s="56">
+        <v>47600</v>
+      </c>
+      <c r="V29" s="56">
+        <v>47600</v>
+      </c>
+      <c r="W29" s="56">
+        <v>47600</v>
+      </c>
+      <c r="X29" s="56">
+        <v>47600</v>
+      </c>
+      <c r="Y29" s="56">
+        <v>47600</v>
+      </c>
+      <c r="Z29" s="56">
+        <v>47600</v>
+      </c>
+      <c r="AA29" s="56">
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+    </row>
+    <row r="31" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R31" s="56">
+        <v>47600</v>
+      </c>
+      <c r="S31" s="56">
+        <v>47600</v>
+      </c>
+      <c r="T31" s="56">
+        <v>47600</v>
+      </c>
+      <c r="U31" s="56">
+        <v>47600</v>
+      </c>
+      <c r="V31" s="56">
+        <v>47600</v>
+      </c>
+      <c r="W31" s="56">
+        <v>47600</v>
+      </c>
+      <c r="X31" s="56">
+        <v>47600</v>
+      </c>
+      <c r="Y31" s="56">
+        <v>47600</v>
+      </c>
+      <c r="Z31" s="56">
+        <v>47600</v>
+      </c>
+      <c r="AA31" s="56">
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="32" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+    </row>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R34" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S34" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T34" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U34" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V34" s="56">
+        <v>9600</v>
+      </c>
+      <c r="W34" s="56">
+        <v>9600</v>
+      </c>
+      <c r="X34" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Y34" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Z34" s="56">
+        <v>9600</v>
+      </c>
+      <c r="AA34" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R35" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S35" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T35" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U35" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V35" s="56">
+        <v>9600</v>
+      </c>
+      <c r="W35" s="56">
+        <v>9600</v>
+      </c>
+      <c r="X35" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Y35" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Z35" s="56">
+        <v>9600</v>
+      </c>
+      <c r="AA35" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R36" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S36" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T36" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U36" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V36" s="56">
+        <v>9600</v>
+      </c>
+      <c r="W36" s="56">
+        <v>9600</v>
+      </c>
+      <c r="X36" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Y36" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Z36" s="56">
+        <v>9600</v>
+      </c>
+      <c r="AA36" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R37" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S37" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T37" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U37" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V37" s="56">
+        <v>9600</v>
+      </c>
+      <c r="W37" s="56">
+        <v>9600</v>
+      </c>
+      <c r="X37" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Y37" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Z37" s="56">
+        <v>9600</v>
+      </c>
+      <c r="AA37" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="R38" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S38" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T38" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U38" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V38" s="56">
+        <v>9600</v>
+      </c>
+      <c r="W38" s="56">
+        <v>9600</v>
+      </c>
+      <c r="X38" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Y38" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Z38" s="56">
+        <v>9600</v>
+      </c>
+      <c r="AA38" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R39" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S39" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T39" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U39" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V39" s="56">
+        <v>9600</v>
+      </c>
+      <c r="W39" s="56">
+        <v>9600</v>
+      </c>
+      <c r="X39" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Y39" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Z39" s="56">
+        <v>9600</v>
+      </c>
+      <c r="AA39" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R40" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S40" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T40" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U40" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V40" s="56">
+        <v>9600</v>
+      </c>
+      <c r="W40" s="56">
+        <v>9600</v>
+      </c>
+      <c r="X40" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Y40" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Z40" s="56">
+        <v>9600</v>
+      </c>
+      <c r="AA40" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R41" s="56">
+        <v>9600</v>
+      </c>
+      <c r="S41" s="56">
+        <v>9600</v>
+      </c>
+      <c r="T41" s="56">
+        <v>9600</v>
+      </c>
+      <c r="U41" s="56">
+        <v>9600</v>
+      </c>
+      <c r="V41" s="56">
+        <v>9600</v>
+      </c>
+      <c r="W41" s="56">
+        <v>9600</v>
+      </c>
+      <c r="X41" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Y41" s="56">
+        <v>9600</v>
+      </c>
+      <c r="Z41" s="56">
+        <v>9600</v>
+      </c>
+      <c r="AA41" s="56">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <f t="shared" ref="C42:Z42" si="0">SUM(D3:D41)</f>
+        <v>129000</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>129000</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>129000</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>129000</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>129000</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="0"/>
+        <v>300900</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="0"/>
+        <v>300900</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="0"/>
+        <v>300900</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="0"/>
+        <v>300900</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="0"/>
+        <v>459100</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="0"/>
+        <v>330100</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="0"/>
+        <v>330100</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="0"/>
+        <v>330100</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>330100</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="0"/>
+        <v>502100</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="0"/>
+        <v>343900</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="0"/>
+        <v>343900</v>
+      </c>
+      <c r="U42" s="1">
+        <f t="shared" si="0"/>
+        <v>343900</v>
+      </c>
+      <c r="V42" s="1">
+        <f t="shared" si="0"/>
+        <v>343900</v>
+      </c>
+      <c r="W42" s="1">
+        <f t="shared" si="0"/>
+        <v>172000</v>
+      </c>
+      <c r="X42" s="1">
+        <f t="shared" si="0"/>
+        <v>172000</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" si="0"/>
+        <v>172000</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="0"/>
+        <v>172000</v>
+      </c>
+      <c r="AA42" s="1">
+        <f>SUM(AA3:AA41)</f>
+        <v>172000</v>
+      </c>
+    </row>
+    <row r="45" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="26">
+        <f>SUM(D3,D7,D15,D27)</f>
+        <v>81000</v>
+      </c>
+      <c r="E45" s="26">
+        <f t="shared" ref="E45:AA45" si="1">SUM(E3,E7,E15,E27)</f>
+        <v>81000</v>
+      </c>
+      <c r="F45" s="26">
+        <f t="shared" si="1"/>
+        <v>81000</v>
+      </c>
+      <c r="G45" s="26">
+        <f t="shared" si="1"/>
+        <v>81000</v>
+      </c>
+      <c r="H45" s="26">
+        <f t="shared" si="1"/>
+        <v>81000</v>
+      </c>
+      <c r="I45" s="26">
+        <f t="shared" si="1"/>
+        <v>132700</v>
+      </c>
+      <c r="J45" s="26">
+        <f>SUM(J3,J7,J15,J27)</f>
+        <v>132700</v>
+      </c>
+      <c r="K45" s="26">
+        <f t="shared" si="1"/>
+        <v>132700</v>
+      </c>
+      <c r="L45" s="26">
+        <f t="shared" si="1"/>
+        <v>132700</v>
+      </c>
+      <c r="M45" s="26">
+        <f t="shared" si="1"/>
+        <v>167600</v>
+      </c>
+      <c r="N45" s="26">
+        <f t="shared" si="1"/>
+        <v>86600</v>
+      </c>
+      <c r="O45" s="26">
+        <f t="shared" si="1"/>
+        <v>86600</v>
+      </c>
+      <c r="P45" s="26">
+        <f t="shared" si="1"/>
+        <v>86600</v>
+      </c>
+      <c r="Q45" s="26">
+        <f t="shared" si="1"/>
+        <v>86600</v>
+      </c>
+      <c r="R45" s="26">
+        <f t="shared" si="1"/>
+        <v>86600</v>
+      </c>
+      <c r="S45" s="26">
+        <f t="shared" si="1"/>
+        <v>34900</v>
+      </c>
+      <c r="T45" s="26">
+        <f t="shared" si="1"/>
+        <v>34900</v>
+      </c>
+      <c r="U45" s="26">
+        <f t="shared" si="1"/>
+        <v>34900</v>
+      </c>
+      <c r="V45" s="26">
+        <f t="shared" si="1"/>
+        <v>34900</v>
+      </c>
+      <c r="W45" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="26">
+        <f t="shared" ref="D46:AA46" si="2">SUM(D4,D8,D16,D28)</f>
+        <v>24000</v>
+      </c>
+      <c r="E46" s="26">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="F46" s="26">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="G46" s="26">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="H46" s="26">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="I46" s="26">
+        <f t="shared" si="2"/>
+        <v>37700</v>
+      </c>
+      <c r="J46" s="26">
+        <f t="shared" si="2"/>
+        <v>37700</v>
+      </c>
+      <c r="K46" s="26">
+        <f t="shared" si="2"/>
+        <v>37700</v>
+      </c>
+      <c r="L46" s="26">
+        <f t="shared" si="2"/>
+        <v>37700</v>
+      </c>
+      <c r="M46" s="26">
+        <f t="shared" si="2"/>
+        <v>37700</v>
+      </c>
+      <c r="N46" s="26">
+        <f t="shared" si="2"/>
+        <v>13700</v>
+      </c>
+      <c r="O46" s="26">
+        <f t="shared" si="2"/>
+        <v>13700</v>
+      </c>
+      <c r="P46" s="26">
+        <f t="shared" si="2"/>
+        <v>13700</v>
+      </c>
+      <c r="Q46" s="26">
+        <f t="shared" si="2"/>
+        <v>13700</v>
+      </c>
+      <c r="R46" s="26">
+        <f t="shared" si="2"/>
+        <v>13700</v>
+      </c>
+      <c r="S46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="26">
+        <f t="shared" ref="D47:AA47" si="3">SUM(D5,D9,D17,D29)</f>
+        <v>24000</v>
+      </c>
+      <c r="E47" s="26">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+      <c r="F47" s="26">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+      <c r="G47" s="26">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+      <c r="H47" s="26">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+      <c r="I47" s="26">
+        <f t="shared" si="3"/>
+        <v>37700</v>
+      </c>
+      <c r="J47" s="26">
+        <f t="shared" si="3"/>
+        <v>37700</v>
+      </c>
+      <c r="K47" s="26">
+        <f t="shared" si="3"/>
+        <v>37700</v>
+      </c>
+      <c r="L47" s="26">
+        <f t="shared" si="3"/>
+        <v>37700</v>
+      </c>
+      <c r="M47" s="26">
+        <f t="shared" si="3"/>
+        <v>58900</v>
+      </c>
+      <c r="N47" s="26">
+        <f t="shared" si="3"/>
+        <v>34900</v>
+      </c>
+      <c r="O47" s="26">
+        <f t="shared" si="3"/>
+        <v>34900</v>
+      </c>
+      <c r="P47" s="26">
+        <f t="shared" si="3"/>
+        <v>34900</v>
+      </c>
+      <c r="Q47" s="26">
+        <f t="shared" si="3"/>
+        <v>34900</v>
+      </c>
+      <c r="R47" s="26">
+        <f t="shared" si="3"/>
+        <v>82500</v>
+      </c>
+      <c r="S47" s="26">
+        <f t="shared" si="3"/>
+        <v>82500</v>
+      </c>
+      <c r="T47" s="26">
+        <f t="shared" si="3"/>
+        <v>82500</v>
+      </c>
+      <c r="U47" s="26">
+        <f t="shared" si="3"/>
+        <v>82500</v>
+      </c>
+      <c r="V47" s="26">
+        <f t="shared" si="3"/>
+        <v>82500</v>
+      </c>
+      <c r="W47" s="26">
+        <f t="shared" si="3"/>
+        <v>47600</v>
+      </c>
+      <c r="X47" s="26">
+        <f t="shared" si="3"/>
+        <v>47600</v>
+      </c>
+      <c r="Y47" s="26">
+        <f t="shared" si="3"/>
+        <v>47600</v>
+      </c>
+      <c r="Z47" s="26">
+        <f t="shared" si="3"/>
+        <v>47600</v>
+      </c>
+      <c r="AA47" s="26">
+        <f t="shared" si="3"/>
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="26">
+        <v>0</v>
+      </c>
+      <c r="E48" s="26">
+        <v>0</v>
+      </c>
+      <c r="F48" s="26">
+        <v>0</v>
+      </c>
+      <c r="G48" s="26">
+        <v>0</v>
+      </c>
+      <c r="H48" s="26">
+        <v>0</v>
+      </c>
+      <c r="I48" s="26">
+        <f>SUM(I10,I18,I30)</f>
+        <v>13700</v>
+      </c>
+      <c r="J48" s="26">
+        <f t="shared" ref="J48:AA48" si="4">SUM(J10,J18,J30)</f>
+        <v>13700</v>
+      </c>
+      <c r="K48" s="26">
+        <f t="shared" si="4"/>
+        <v>13700</v>
+      </c>
+      <c r="L48" s="26">
+        <f t="shared" si="4"/>
+        <v>13700</v>
+      </c>
+      <c r="M48" s="26">
+        <f>SUM(M10,M18,M30)</f>
+        <v>23300</v>
+      </c>
+      <c r="N48" s="26">
+        <f t="shared" si="4"/>
+        <v>23300</v>
+      </c>
+      <c r="O48" s="26">
+        <f t="shared" si="4"/>
+        <v>23300</v>
+      </c>
+      <c r="P48" s="26">
+        <f t="shared" si="4"/>
+        <v>23300</v>
+      </c>
+      <c r="Q48" s="26">
+        <f t="shared" si="4"/>
+        <v>23300</v>
+      </c>
+      <c r="R48" s="26">
+        <f t="shared" si="4"/>
+        <v>23300</v>
+      </c>
+      <c r="S48" s="26">
+        <f t="shared" si="4"/>
+        <v>9600</v>
+      </c>
+      <c r="T48" s="26">
+        <f t="shared" si="4"/>
+        <v>9600</v>
+      </c>
+      <c r="U48" s="26">
+        <f t="shared" si="4"/>
+        <v>9600</v>
+      </c>
+      <c r="V48" s="26">
+        <f t="shared" si="4"/>
+        <v>9600</v>
+      </c>
+      <c r="W48" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="26">
+        <v>0</v>
+      </c>
+      <c r="E49" s="26">
+        <v>0</v>
+      </c>
+      <c r="F49" s="26">
+        <v>0</v>
+      </c>
+      <c r="G49" s="26">
+        <v>0</v>
+      </c>
+      <c r="H49" s="26">
+        <v>0</v>
+      </c>
+      <c r="I49" s="26">
+        <f t="shared" ref="I49:AA49" si="5">SUM(I11,I19,I31)</f>
+        <v>51700</v>
+      </c>
+      <c r="J49" s="26">
+        <f t="shared" si="5"/>
+        <v>51700</v>
+      </c>
+      <c r="K49" s="26">
+        <f t="shared" si="5"/>
+        <v>51700</v>
+      </c>
+      <c r="L49" s="26">
+        <f t="shared" si="5"/>
+        <v>51700</v>
+      </c>
+      <c r="M49" s="26">
+        <f t="shared" si="5"/>
+        <v>86600</v>
+      </c>
+      <c r="N49" s="26">
+        <f t="shared" si="5"/>
+        <v>86600</v>
+      </c>
+      <c r="O49" s="26">
+        <f t="shared" si="5"/>
+        <v>86600</v>
+      </c>
+      <c r="P49" s="26">
+        <f t="shared" si="5"/>
+        <v>86600</v>
+      </c>
+      <c r="Q49" s="26">
+        <f t="shared" si="5"/>
+        <v>86600</v>
+      </c>
+      <c r="R49" s="26">
+        <f t="shared" si="5"/>
+        <v>134200</v>
+      </c>
+      <c r="S49" s="26">
+        <f t="shared" si="5"/>
+        <v>82500</v>
+      </c>
+      <c r="T49" s="26">
+        <f t="shared" si="5"/>
+        <v>82500</v>
+      </c>
+      <c r="U49" s="26">
+        <f t="shared" si="5"/>
+        <v>82500</v>
+      </c>
+      <c r="V49" s="26">
+        <f t="shared" si="5"/>
+        <v>82500</v>
+      </c>
+      <c r="W49" s="26">
+        <f t="shared" si="5"/>
+        <v>47600</v>
+      </c>
+      <c r="X49" s="26">
+        <f t="shared" si="5"/>
+        <v>47600</v>
+      </c>
+      <c r="Y49" s="26">
+        <f t="shared" si="5"/>
+        <v>47600</v>
+      </c>
+      <c r="Z49" s="26">
+        <f t="shared" si="5"/>
+        <v>47600</v>
+      </c>
+      <c r="AA49" s="26">
+        <f t="shared" si="5"/>
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="26">
+        <v>0</v>
+      </c>
+      <c r="E50" s="26">
+        <v>0</v>
+      </c>
+      <c r="F50" s="26">
+        <v>0</v>
+      </c>
+      <c r="G50" s="26">
+        <v>0</v>
+      </c>
+      <c r="H50" s="26">
+        <v>0</v>
+      </c>
+      <c r="I50" s="26">
+        <f t="shared" ref="I50:AA50" si="6">SUM(I12,I20,I32)</f>
+        <v>13700</v>
+      </c>
+      <c r="J50" s="26">
+        <f t="shared" si="6"/>
+        <v>13700</v>
+      </c>
+      <c r="K50" s="26">
+        <f t="shared" si="6"/>
+        <v>13700</v>
+      </c>
+      <c r="L50" s="26">
+        <f t="shared" si="6"/>
+        <v>13700</v>
+      </c>
+      <c r="M50" s="26">
+        <f t="shared" si="6"/>
+        <v>23300</v>
+      </c>
+      <c r="N50" s="26">
+        <f t="shared" si="6"/>
+        <v>23300</v>
+      </c>
+      <c r="O50" s="26">
+        <f t="shared" si="6"/>
+        <v>23300</v>
+      </c>
+      <c r="P50" s="26">
+        <f t="shared" si="6"/>
+        <v>23300</v>
+      </c>
+      <c r="Q50" s="26">
+        <f t="shared" si="6"/>
+        <v>23300</v>
+      </c>
+      <c r="R50" s="26">
+        <f t="shared" si="6"/>
+        <v>23300</v>
+      </c>
+      <c r="S50" s="26">
+        <f t="shared" si="6"/>
+        <v>9600</v>
+      </c>
+      <c r="T50" s="26">
+        <f t="shared" si="6"/>
+        <v>9600</v>
+      </c>
+      <c r="U50" s="26">
+        <f t="shared" si="6"/>
+        <v>9600</v>
+      </c>
+      <c r="V50" s="26">
+        <f t="shared" si="6"/>
+        <v>9600</v>
+      </c>
+      <c r="W50" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="26">
+        <v>0</v>
+      </c>
+      <c r="E51" s="26">
+        <v>0</v>
+      </c>
+      <c r="F51" s="26">
+        <v>0</v>
+      </c>
+      <c r="G51" s="26">
+        <v>0</v>
+      </c>
+      <c r="H51" s="26">
+        <v>0</v>
+      </c>
+      <c r="I51" s="26">
+        <f t="shared" ref="I51:AA51" si="7">SUM(I13,I21,I33)</f>
+        <v>13700</v>
+      </c>
+      <c r="J51" s="26">
+        <f t="shared" si="7"/>
+        <v>13700</v>
+      </c>
+      <c r="K51" s="26">
+        <f t="shared" si="7"/>
+        <v>13700</v>
+      </c>
+      <c r="L51" s="26">
+        <f t="shared" si="7"/>
+        <v>13700</v>
+      </c>
+      <c r="M51" s="26">
+        <f t="shared" si="7"/>
+        <v>23300</v>
+      </c>
+      <c r="N51" s="26">
+        <f t="shared" si="7"/>
+        <v>23300</v>
+      </c>
+      <c r="O51" s="26">
+        <f t="shared" si="7"/>
+        <v>23300</v>
+      </c>
+      <c r="P51" s="26">
+        <f t="shared" si="7"/>
+        <v>23300</v>
+      </c>
+      <c r="Q51" s="26">
+        <f t="shared" si="7"/>
+        <v>23300</v>
+      </c>
+      <c r="R51" s="26">
+        <f t="shared" si="7"/>
+        <v>23300</v>
+      </c>
+      <c r="S51" s="26">
+        <f t="shared" si="7"/>
+        <v>9600</v>
+      </c>
+      <c r="T51" s="26">
+        <f t="shared" si="7"/>
+        <v>9600</v>
+      </c>
+      <c r="U51" s="26">
+        <f t="shared" si="7"/>
+        <v>9600</v>
+      </c>
+      <c r="V51" s="26">
+        <f t="shared" si="7"/>
+        <v>9600</v>
+      </c>
+      <c r="W51" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="26">
+        <v>0</v>
+      </c>
+      <c r="E52" s="26">
+        <v>0</v>
+      </c>
+      <c r="F52" s="26">
+        <v>0</v>
+      </c>
+      <c r="G52" s="26">
+        <v>0</v>
+      </c>
+      <c r="H52" s="26">
+        <v>0</v>
+      </c>
+      <c r="I52" s="26">
+        <v>0</v>
+      </c>
+      <c r="J52" s="26">
+        <v>0</v>
+      </c>
+      <c r="K52" s="26">
+        <v>0</v>
+      </c>
+      <c r="L52" s="26">
+        <v>0</v>
+      </c>
+      <c r="M52" s="26">
+        <f>SUM(M22,M34)</f>
+        <v>9600</v>
+      </c>
+      <c r="N52" s="26">
+        <f t="shared" ref="N52:AA52" si="8">SUM(N22,N34)</f>
+        <v>9600</v>
+      </c>
+      <c r="O52" s="26">
+        <f t="shared" si="8"/>
+        <v>9600</v>
+      </c>
+      <c r="P52" s="26">
+        <f t="shared" si="8"/>
+        <v>9600</v>
+      </c>
+      <c r="Q52" s="26">
+        <f t="shared" si="8"/>
+        <v>9600</v>
+      </c>
+      <c r="R52" s="26">
+        <f>SUM(R22,R34)</f>
+        <v>19200</v>
+      </c>
+      <c r="S52" s="26">
+        <f t="shared" si="8"/>
+        <v>19200</v>
+      </c>
+      <c r="T52" s="26">
+        <f t="shared" si="8"/>
+        <v>19200</v>
+      </c>
+      <c r="U52" s="26">
+        <f t="shared" si="8"/>
+        <v>19200</v>
+      </c>
+      <c r="V52" s="26">
+        <f t="shared" si="8"/>
+        <v>19200</v>
+      </c>
+      <c r="W52" s="26">
+        <f t="shared" si="8"/>
+        <v>9600</v>
+      </c>
+      <c r="X52" s="26">
+        <f t="shared" si="8"/>
+        <v>9600</v>
+      </c>
+      <c r="Y52" s="26">
+        <f>SUM(Y22,Y34)</f>
+        <v>9600</v>
+      </c>
+      <c r="Z52" s="26">
+        <f t="shared" si="8"/>
+        <v>9600</v>
+      </c>
+      <c r="AA52" s="26">
+        <f t="shared" si="8"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="26">
+        <v>0</v>
+      </c>
+      <c r="E53" s="26">
+        <v>0</v>
+      </c>
+      <c r="F53" s="26">
+        <v>0</v>
+      </c>
+      <c r="G53" s="26">
+        <v>0</v>
+      </c>
+      <c r="H53" s="26">
+        <v>0</v>
+      </c>
+      <c r="I53" s="26">
+        <v>0</v>
+      </c>
+      <c r="J53" s="26">
+        <v>0</v>
+      </c>
+      <c r="K53" s="26">
+        <v>0</v>
+      </c>
+      <c r="L53" s="26">
+        <v>0</v>
+      </c>
+      <c r="M53" s="26">
+        <f t="shared" ref="M53:AA53" si="9">SUM(M23,M35)</f>
+        <v>9600</v>
+      </c>
+      <c r="N53" s="26">
+        <f t="shared" si="9"/>
+        <v>9600</v>
+      </c>
+      <c r="O53" s="26">
+        <f t="shared" si="9"/>
+        <v>9600</v>
+      </c>
+      <c r="P53" s="26">
+        <f t="shared" si="9"/>
+        <v>9600</v>
+      </c>
+      <c r="Q53" s="26">
+        <f t="shared" si="9"/>
+        <v>9600</v>
+      </c>
+      <c r="R53" s="26">
+        <f t="shared" si="9"/>
+        <v>19200</v>
+      </c>
+      <c r="S53" s="26">
+        <f t="shared" si="9"/>
+        <v>19200</v>
+      </c>
+      <c r="T53" s="26">
+        <f t="shared" si="9"/>
+        <v>19200</v>
+      </c>
+      <c r="U53" s="26">
+        <f t="shared" si="9"/>
+        <v>19200</v>
+      </c>
+      <c r="V53" s="26">
+        <f t="shared" si="9"/>
+        <v>19200</v>
+      </c>
+      <c r="W53" s="26">
+        <f t="shared" si="9"/>
+        <v>9600</v>
+      </c>
+      <c r="X53" s="26">
+        <f t="shared" si="9"/>
+        <v>9600</v>
+      </c>
+      <c r="Y53" s="26">
+        <f t="shared" si="9"/>
+        <v>9600</v>
+      </c>
+      <c r="Z53" s="26">
+        <f t="shared" si="9"/>
+        <v>9600</v>
+      </c>
+      <c r="AA53" s="26">
+        <f t="shared" si="9"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="26">
+        <v>0</v>
+      </c>
+      <c r="E54" s="26">
+        <v>0</v>
+      </c>
+      <c r="F54" s="26">
+        <v>0</v>
+      </c>
+      <c r="G54" s="26">
+        <v>0</v>
+      </c>
+      <c r="H54" s="26">
+        <v>0</v>
+      </c>
+      <c r="I54" s="26">
+        <v>0</v>
+      </c>
+      <c r="J54" s="26">
+        <v>0</v>
+      </c>
+      <c r="K54" s="26">
+        <v>0</v>
+      </c>
+      <c r="L54" s="26">
+        <v>0</v>
+      </c>
+      <c r="M54" s="26">
+        <f t="shared" ref="M54:AA54" si="10">SUM(M24,M36)</f>
+        <v>9600</v>
+      </c>
+      <c r="N54" s="26">
+        <f t="shared" si="10"/>
+        <v>9600</v>
+      </c>
+      <c r="O54" s="26">
+        <f t="shared" si="10"/>
+        <v>9600</v>
+      </c>
+      <c r="P54" s="26">
+        <f t="shared" si="10"/>
+        <v>9600</v>
+      </c>
+      <c r="Q54" s="26">
+        <f t="shared" si="10"/>
+        <v>9600</v>
+      </c>
+      <c r="R54" s="26">
+        <f t="shared" si="10"/>
+        <v>19200</v>
+      </c>
+      <c r="S54" s="26">
+        <f t="shared" si="10"/>
+        <v>19200</v>
+      </c>
+      <c r="T54" s="26">
+        <f t="shared" si="10"/>
+        <v>19200</v>
+      </c>
+      <c r="U54" s="26">
+        <f t="shared" si="10"/>
+        <v>19200</v>
+      </c>
+      <c r="V54" s="26">
+        <f t="shared" si="10"/>
+        <v>19200</v>
+      </c>
+      <c r="W54" s="26">
+        <f t="shared" si="10"/>
+        <v>9600</v>
+      </c>
+      <c r="X54" s="26">
+        <f t="shared" si="10"/>
+        <v>9600</v>
+      </c>
+      <c r="Y54" s="26">
+        <f t="shared" si="10"/>
+        <v>9600</v>
+      </c>
+      <c r="Z54" s="26">
+        <f t="shared" si="10"/>
+        <v>9600</v>
+      </c>
+      <c r="AA54" s="26">
+        <f t="shared" si="10"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="26">
+        <v>0</v>
+      </c>
+      <c r="E55" s="26">
+        <v>0</v>
+      </c>
+      <c r="F55" s="26">
+        <v>0</v>
+      </c>
+      <c r="G55" s="26">
+        <v>0</v>
+      </c>
+      <c r="H55" s="26">
+        <v>0</v>
+      </c>
+      <c r="I55" s="26">
+        <v>0</v>
+      </c>
+      <c r="J55" s="26">
+        <v>0</v>
+      </c>
+      <c r="K55" s="26">
+        <v>0</v>
+      </c>
+      <c r="L55" s="26">
+        <v>0</v>
+      </c>
+      <c r="M55" s="26">
+        <f t="shared" ref="M55:AA55" si="11">SUM(M25,M37)</f>
+        <v>9600</v>
+      </c>
+      <c r="N55" s="26">
+        <f t="shared" si="11"/>
+        <v>9600</v>
+      </c>
+      <c r="O55" s="26">
+        <f t="shared" si="11"/>
+        <v>9600</v>
+      </c>
+      <c r="P55" s="26">
+        <f t="shared" si="11"/>
+        <v>9600</v>
+      </c>
+      <c r="Q55" s="26">
+        <f t="shared" si="11"/>
+        <v>9600</v>
+      </c>
+      <c r="R55" s="26">
+        <f t="shared" si="11"/>
+        <v>19200</v>
+      </c>
+      <c r="S55" s="26">
+        <f t="shared" si="11"/>
+        <v>19200</v>
+      </c>
+      <c r="T55" s="26">
+        <f t="shared" si="11"/>
+        <v>19200</v>
+      </c>
+      <c r="U55" s="26">
+        <f t="shared" si="11"/>
+        <v>19200</v>
+      </c>
+      <c r="V55" s="26">
+        <f t="shared" si="11"/>
+        <v>19200</v>
+      </c>
+      <c r="W55" s="26">
+        <f t="shared" si="11"/>
+        <v>9600</v>
+      </c>
+      <c r="X55" s="26">
+        <f t="shared" si="11"/>
+        <v>9600</v>
+      </c>
+      <c r="Y55" s="26">
+        <f t="shared" si="11"/>
+        <v>9600</v>
+      </c>
+      <c r="Z55" s="26">
+        <f t="shared" si="11"/>
+        <v>9600</v>
+      </c>
+      <c r="AA55" s="26">
+        <f t="shared" si="11"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="L25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="N25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="O25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="P25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="R25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="S25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="T25" s="63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="63">
-        <v>0</v>
-      </c>
-      <c r="D26" s="63">
-        <v>0</v>
-      </c>
-      <c r="E26" s="63">
-        <v>0</v>
-      </c>
-      <c r="F26" s="63">
-        <v>0</v>
-      </c>
-      <c r="G26" s="63">
-        <v>0</v>
-      </c>
-      <c r="H26" s="63">
-        <v>0</v>
-      </c>
-      <c r="I26" s="63">
-        <v>0</v>
-      </c>
-      <c r="J26" s="63">
-        <v>0</v>
-      </c>
-      <c r="K26" s="63">
-        <v>0</v>
-      </c>
-      <c r="L26" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="M26" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="N26" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="O26" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="P26" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q26" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="R26" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="S26" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="T26" s="63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="63">
-        <v>0</v>
-      </c>
-      <c r="D27" s="63">
-        <v>0</v>
-      </c>
-      <c r="E27" s="63">
-        <v>0</v>
-      </c>
-      <c r="F27" s="63">
-        <v>0</v>
-      </c>
-      <c r="G27" s="63">
-        <v>0</v>
-      </c>
-      <c r="H27" s="63">
-        <v>0</v>
-      </c>
-      <c r="I27" s="63">
-        <v>0</v>
-      </c>
-      <c r="J27" s="63">
-        <v>0</v>
-      </c>
-      <c r="K27" s="63">
-        <v>0</v>
-      </c>
-      <c r="L27" s="63">
-        <v>0</v>
-      </c>
-      <c r="M27" s="63">
-        <v>0</v>
-      </c>
-      <c r="N27" s="63">
-        <v>0</v>
-      </c>
-      <c r="O27" s="63">
-        <v>0</v>
-      </c>
-      <c r="P27" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="63">
-        <v>0</v>
-      </c>
-      <c r="R27" s="63">
-        <v>0</v>
-      </c>
-      <c r="S27" s="63">
-        <v>0</v>
-      </c>
-      <c r="T27" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="63">
-        <v>0</v>
-      </c>
-      <c r="D28" s="63">
-        <v>0</v>
-      </c>
-      <c r="E28" s="63">
-        <v>0</v>
-      </c>
-      <c r="F28" s="63">
-        <v>0</v>
-      </c>
-      <c r="G28" s="63">
-        <v>0</v>
-      </c>
-      <c r="H28" s="63">
-        <v>0</v>
-      </c>
-      <c r="I28" s="63">
-        <v>0</v>
-      </c>
-      <c r="J28" s="63">
-        <v>0</v>
-      </c>
-      <c r="K28" s="63">
-        <v>0</v>
-      </c>
-      <c r="L28" s="63">
-        <v>0</v>
-      </c>
-      <c r="M28" s="63">
-        <v>0</v>
-      </c>
-      <c r="N28" s="63">
-        <v>0</v>
-      </c>
-      <c r="O28" s="63">
-        <v>0</v>
-      </c>
-      <c r="P28" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="63">
-        <v>0</v>
-      </c>
-      <c r="R28" s="63">
-        <v>0</v>
-      </c>
-      <c r="S28" s="63">
-        <v>0</v>
-      </c>
-      <c r="T28" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="63">
-        <v>0</v>
-      </c>
-      <c r="D29" s="63">
-        <v>0</v>
-      </c>
-      <c r="E29" s="63">
-        <v>0</v>
-      </c>
-      <c r="F29" s="63">
-        <v>0</v>
-      </c>
-      <c r="G29" s="63">
-        <v>0</v>
-      </c>
-      <c r="H29" s="63">
-        <v>0</v>
-      </c>
-      <c r="I29" s="63">
-        <v>0</v>
-      </c>
-      <c r="J29" s="63">
-        <v>0</v>
-      </c>
-      <c r="K29" s="63">
-        <v>0</v>
-      </c>
-      <c r="L29" s="63">
-        <v>0</v>
-      </c>
-      <c r="M29" s="63">
-        <v>0</v>
-      </c>
-      <c r="N29" s="63">
-        <v>0</v>
-      </c>
-      <c r="O29" s="63">
-        <v>0</v>
-      </c>
-      <c r="P29" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="63">
-        <v>0</v>
-      </c>
-      <c r="R29" s="63">
-        <v>0</v>
-      </c>
-      <c r="S29" s="63">
-        <v>0</v>
-      </c>
-      <c r="T29" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B30" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="63">
-        <v>0</v>
-      </c>
-      <c r="D30" s="63">
-        <v>0</v>
-      </c>
-      <c r="E30" s="63">
-        <v>0</v>
-      </c>
-      <c r="F30" s="63">
-        <v>0</v>
-      </c>
-      <c r="G30" s="63">
-        <v>0</v>
-      </c>
-      <c r="H30" s="63">
-        <v>0</v>
-      </c>
-      <c r="I30" s="63">
-        <v>0</v>
-      </c>
-      <c r="J30" s="63">
-        <v>0</v>
-      </c>
-      <c r="K30" s="63">
-        <v>0</v>
-      </c>
-      <c r="L30" s="63">
-        <v>0</v>
-      </c>
-      <c r="M30" s="63">
-        <v>0</v>
-      </c>
-      <c r="N30" s="63">
-        <v>0</v>
-      </c>
-      <c r="O30" s="63">
-        <v>0</v>
-      </c>
-      <c r="P30" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="63">
-        <v>0</v>
-      </c>
-      <c r="R30" s="63">
-        <v>0</v>
-      </c>
-      <c r="S30" s="63">
-        <v>0</v>
-      </c>
-      <c r="T30" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B31" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="63">
-        <v>0</v>
-      </c>
-      <c r="D31" s="63">
-        <v>0</v>
-      </c>
-      <c r="E31" s="63">
-        <v>0</v>
-      </c>
-      <c r="F31" s="63">
-        <v>0</v>
-      </c>
-      <c r="G31" s="63">
-        <v>0</v>
-      </c>
-      <c r="H31" s="63">
-        <v>0</v>
-      </c>
-      <c r="I31" s="63">
-        <v>0</v>
-      </c>
-      <c r="J31" s="63">
-        <v>0</v>
-      </c>
-      <c r="K31" s="63">
-        <v>0</v>
-      </c>
-      <c r="L31" s="63">
-        <v>0</v>
-      </c>
-      <c r="M31" s="63">
-        <v>0</v>
-      </c>
-      <c r="N31" s="63">
-        <v>0</v>
-      </c>
-      <c r="O31" s="63">
-        <v>0</v>
-      </c>
-      <c r="P31" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="63">
-        <v>0</v>
-      </c>
-      <c r="R31" s="63">
-        <v>0</v>
-      </c>
-      <c r="S31" s="63">
-        <v>0</v>
-      </c>
-      <c r="T31" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B32" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="64" t="s">
+      <c r="D56" s="26">
+        <v>0</v>
+      </c>
+      <c r="E56" s="26">
+        <v>0</v>
+      </c>
+      <c r="F56" s="26">
+        <v>0</v>
+      </c>
+      <c r="G56" s="26">
+        <v>0</v>
+      </c>
+      <c r="H56" s="26">
+        <v>0</v>
+      </c>
+      <c r="I56" s="26">
+        <v>0</v>
+      </c>
+      <c r="J56" s="26">
+        <v>0</v>
+      </c>
+      <c r="K56" s="26">
+        <v>0</v>
+      </c>
+      <c r="L56" s="26">
+        <v>0</v>
+      </c>
+      <c r="M56" s="26">
+        <v>0</v>
+      </c>
+      <c r="N56" s="26">
+        <v>0</v>
+      </c>
+      <c r="O56" s="26">
+        <v>0</v>
+      </c>
+      <c r="P56" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="26">
+        <v>0</v>
+      </c>
+      <c r="R56" s="26">
+        <f>SUM(R38)</f>
+        <v>9600</v>
+      </c>
+      <c r="S56" s="26">
+        <f t="shared" ref="S56:AA56" si="12">SUM(S38)</f>
+        <v>9600</v>
+      </c>
+      <c r="T56" s="26">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+      <c r="U56" s="26">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+      <c r="V56" s="26">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+      <c r="W56" s="26">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+      <c r="X56" s="26">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+      <c r="Y56" s="26">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+      <c r="Z56" s="26">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+      <c r="AA56" s="26">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="26">
+        <v>0</v>
+      </c>
+      <c r="E57" s="26">
+        <v>0</v>
+      </c>
+      <c r="F57" s="26">
+        <v>0</v>
+      </c>
+      <c r="G57" s="26">
+        <v>0</v>
+      </c>
+      <c r="H57" s="26">
+        <v>0</v>
+      </c>
+      <c r="I57" s="26">
+        <v>0</v>
+      </c>
+      <c r="J57" s="26">
+        <v>0</v>
+      </c>
+      <c r="K57" s="26">
+        <v>0</v>
+      </c>
+      <c r="L57" s="26">
+        <v>0</v>
+      </c>
+      <c r="M57" s="26">
+        <v>0</v>
+      </c>
+      <c r="N57" s="26">
+        <v>0</v>
+      </c>
+      <c r="O57" s="26">
+        <v>0</v>
+      </c>
+      <c r="P57" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="26">
+        <v>0</v>
+      </c>
+      <c r="R57" s="26">
+        <f t="shared" ref="R57:AA57" si="13">SUM(R39)</f>
+        <v>9600</v>
+      </c>
+      <c r="S57" s="26">
+        <f t="shared" si="13"/>
+        <v>9600</v>
+      </c>
+      <c r="T57" s="26">
+        <f t="shared" si="13"/>
+        <v>9600</v>
+      </c>
+      <c r="U57" s="26">
+        <f t="shared" si="13"/>
+        <v>9600</v>
+      </c>
+      <c r="V57" s="26">
+        <f t="shared" si="13"/>
+        <v>9600</v>
+      </c>
+      <c r="W57" s="26">
+        <f t="shared" si="13"/>
+        <v>9600</v>
+      </c>
+      <c r="X57" s="26">
+        <f t="shared" si="13"/>
+        <v>9600</v>
+      </c>
+      <c r="Y57" s="26">
+        <f t="shared" si="13"/>
+        <v>9600</v>
+      </c>
+      <c r="Z57" s="26">
+        <f t="shared" si="13"/>
+        <v>9600</v>
+      </c>
+      <c r="AA57" s="26">
+        <f t="shared" si="13"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="64" t="s">
+      <c r="D58" s="26">
+        <v>0</v>
+      </c>
+      <c r="E58" s="26">
+        <v>0</v>
+      </c>
+      <c r="F58" s="26">
+        <v>0</v>
+      </c>
+      <c r="G58" s="26">
+        <v>0</v>
+      </c>
+      <c r="H58" s="26">
+        <v>0</v>
+      </c>
+      <c r="I58" s="26">
+        <v>0</v>
+      </c>
+      <c r="J58" s="26">
+        <v>0</v>
+      </c>
+      <c r="K58" s="26">
+        <v>0</v>
+      </c>
+      <c r="L58" s="26">
+        <v>0</v>
+      </c>
+      <c r="M58" s="26">
+        <v>0</v>
+      </c>
+      <c r="N58" s="26">
+        <v>0</v>
+      </c>
+      <c r="O58" s="26">
+        <v>0</v>
+      </c>
+      <c r="P58" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="26">
+        <v>0</v>
+      </c>
+      <c r="R58" s="26">
+        <f t="shared" ref="R58:AA59" si="14">SUM(R40)</f>
+        <v>9600</v>
+      </c>
+      <c r="S58" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="T58" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="U58" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="V58" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="W58" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="X58" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="Y58" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="Z58" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="AA58" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I32" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="J32" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="K32" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="L32" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="M32" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="N32" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="O32" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="P32" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q32" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="R32" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="S32" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="T32" s="64" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="71"/>
-      <c r="C33" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B34" s="71"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B36" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B37" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="63">
-        <v>0</v>
-      </c>
-      <c r="D37" s="63">
-        <v>0</v>
-      </c>
-      <c r="E37" s="63">
-        <v>0</v>
-      </c>
-      <c r="F37" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B38" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="63">
-        <v>0</v>
-      </c>
-      <c r="D38" s="63">
-        <v>0</v>
-      </c>
-      <c r="E38" s="63">
-        <v>0</v>
-      </c>
-      <c r="F38" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B39" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="63">
-        <v>0</v>
-      </c>
-      <c r="D39" s="63">
-        <v>0</v>
-      </c>
-      <c r="E39" s="63">
-        <v>0</v>
-      </c>
-      <c r="F39" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B40" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="63">
-        <v>0</v>
-      </c>
-      <c r="D40" s="63">
-        <v>0</v>
-      </c>
-      <c r="E40" s="63">
-        <v>0</v>
-      </c>
-      <c r="F40" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B41" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="63">
-        <v>0</v>
-      </c>
-      <c r="D41" s="63">
-        <v>0</v>
-      </c>
-      <c r="E41" s="63">
-        <v>0</v>
-      </c>
-      <c r="F41" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B42" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="63">
-        <v>0</v>
-      </c>
-      <c r="D42" s="63">
-        <v>0</v>
-      </c>
-      <c r="E42" s="63">
-        <v>0</v>
-      </c>
-      <c r="F42" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B43" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="63">
-        <v>0</v>
-      </c>
-      <c r="D43" s="63">
-        <v>0</v>
-      </c>
-      <c r="E43" s="63">
-        <v>0</v>
-      </c>
-      <c r="F43" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B44" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="63">
-        <v>0</v>
-      </c>
-      <c r="D44" s="63">
-        <v>0</v>
-      </c>
-      <c r="E44" s="63">
-        <v>0</v>
-      </c>
-      <c r="F44" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B45" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="64">
-        <v>0</v>
-      </c>
-      <c r="D45" s="64">
-        <v>0</v>
-      </c>
-      <c r="E45" s="64">
-        <v>0</v>
-      </c>
-      <c r="F45" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C46" s="72"/>
+      <c r="D59" s="26">
+        <v>0</v>
+      </c>
+      <c r="E59" s="26">
+        <v>0</v>
+      </c>
+      <c r="F59" s="26">
+        <v>0</v>
+      </c>
+      <c r="G59" s="26">
+        <v>0</v>
+      </c>
+      <c r="H59" s="26">
+        <v>0</v>
+      </c>
+      <c r="I59" s="26">
+        <v>0</v>
+      </c>
+      <c r="J59" s="26">
+        <v>0</v>
+      </c>
+      <c r="K59" s="26">
+        <v>0</v>
+      </c>
+      <c r="L59" s="26">
+        <v>0</v>
+      </c>
+      <c r="M59" s="26">
+        <v>0</v>
+      </c>
+      <c r="N59" s="26">
+        <v>0</v>
+      </c>
+      <c r="O59" s="26">
+        <v>0</v>
+      </c>
+      <c r="P59" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="26">
+        <v>0</v>
+      </c>
+      <c r="R59" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="S59" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="T59" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="U59" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="V59" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="W59" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="X59" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="Y59" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="Z59" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="AA59" s="26">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D60" s="26">
+        <f>SUM(D45:D59)</f>
+        <v>129000</v>
+      </c>
+      <c r="E60" s="26">
+        <f t="shared" ref="E60:AA60" si="15">SUM(E45:E59)</f>
+        <v>129000</v>
+      </c>
+      <c r="F60" s="26">
+        <f t="shared" si="15"/>
+        <v>129000</v>
+      </c>
+      <c r="G60" s="26">
+        <f t="shared" si="15"/>
+        <v>129000</v>
+      </c>
+      <c r="H60" s="26">
+        <f t="shared" si="15"/>
+        <v>129000</v>
+      </c>
+      <c r="I60" s="26">
+        <f t="shared" si="15"/>
+        <v>300900</v>
+      </c>
+      <c r="J60" s="26">
+        <f t="shared" si="15"/>
+        <v>300900</v>
+      </c>
+      <c r="K60" s="26">
+        <f t="shared" si="15"/>
+        <v>300900</v>
+      </c>
+      <c r="L60" s="26">
+        <f t="shared" si="15"/>
+        <v>300900</v>
+      </c>
+      <c r="M60" s="26">
+        <f t="shared" si="15"/>
+        <v>459100</v>
+      </c>
+      <c r="N60" s="26">
+        <f t="shared" si="15"/>
+        <v>330100</v>
+      </c>
+      <c r="O60" s="26">
+        <f t="shared" si="15"/>
+        <v>330100</v>
+      </c>
+      <c r="P60" s="26">
+        <f t="shared" si="15"/>
+        <v>330100</v>
+      </c>
+      <c r="Q60" s="26">
+        <f t="shared" si="15"/>
+        <v>330100</v>
+      </c>
+      <c r="R60" s="26">
+        <f t="shared" si="15"/>
+        <v>502100</v>
+      </c>
+      <c r="S60" s="26">
+        <f t="shared" si="15"/>
+        <v>343900</v>
+      </c>
+      <c r="T60" s="26">
+        <f t="shared" si="15"/>
+        <v>343900</v>
+      </c>
+      <c r="U60" s="26">
+        <f t="shared" si="15"/>
+        <v>343900</v>
+      </c>
+      <c r="V60" s="26">
+        <f t="shared" si="15"/>
+        <v>343900</v>
+      </c>
+      <c r="W60" s="26">
+        <f t="shared" si="15"/>
+        <v>172000</v>
+      </c>
+      <c r="X60" s="26">
+        <f t="shared" si="15"/>
+        <v>172000</v>
+      </c>
+      <c r="Y60" s="26">
+        <f t="shared" si="15"/>
+        <v>172000</v>
+      </c>
+      <c r="Z60" s="26">
+        <f t="shared" si="15"/>
+        <v>172000</v>
+      </c>
+      <c r="AA60" s="26">
+        <f t="shared" si="15"/>
+        <v>172000</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C64" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J64" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="17">
+        <v>4000000</v>
+      </c>
+      <c r="D65" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="E65" s="17">
+        <f>$C$65*D65</f>
+        <v>960000</v>
+      </c>
+      <c r="F65" s="16">
+        <v>8</v>
+      </c>
+      <c r="G65" s="16">
+        <f>F65+F66</f>
+        <v>10</v>
+      </c>
+      <c r="H65" s="18">
+        <f>E65/G65</f>
+        <v>96000</v>
+      </c>
+      <c r="I65" s="18">
+        <f>H65</f>
+        <v>96000</v>
+      </c>
+      <c r="J65" s="18">
+        <f>I65/10</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="16"/>
+      <c r="D66" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="E66" s="17">
+        <f>$C$65*D66</f>
+        <v>760000</v>
+      </c>
+      <c r="F66" s="16">
+        <v>2</v>
+      </c>
+      <c r="G66" s="16">
+        <f>F66+F67</f>
+        <v>2</v>
+      </c>
+      <c r="H66" s="18">
+        <f>E66/G66</f>
+        <v>380000</v>
+      </c>
+      <c r="I66" s="18">
+        <f>I65+H66</f>
+        <v>476000</v>
+      </c>
+      <c r="J66" s="18">
+        <f>I66/10</f>
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E67" s="17">
+        <f t="shared" ref="E67:E68" si="16">$C$65*D67</f>
+        <v>560000</v>
+      </c>
+      <c r="F67" s="16">
+        <v>0</v>
+      </c>
+      <c r="G67" s="16">
+        <f>F67+F68</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="18" t="e">
+        <f>E67/G67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I67" s="18" t="e">
+        <f>I66+H67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J67" s="18" t="e">
+        <f>I67/10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="16"/>
+      <c r="D68" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="E68" s="17">
+        <f t="shared" si="16"/>
+        <v>360000</v>
+      </c>
+      <c r="F68" s="16">
+        <v>0</v>
+      </c>
+      <c r="G68" s="16">
+        <f>F68+F69</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="18" t="e">
+        <f>E68/G68</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I68" s="18" t="e">
+        <f>I67+H68</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J68" s="18" t="e">
+        <f>I68/10</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B16:B17"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>